--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_100ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_100ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
@@ -4327,28 +4327,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>11393.48651026277</v>
+        <v>11980.62797041962</v>
       </c>
       <c r="AB2" t="n">
-        <v>15589.07088849233</v>
+        <v>16392.42373713207</v>
       </c>
       <c r="AC2" t="n">
-        <v>14101.27184229244</v>
+        <v>14827.95382257078</v>
       </c>
       <c r="AD2" t="n">
-        <v>11393486.51026277</v>
+        <v>11980627.97041962</v>
       </c>
       <c r="AE2" t="n">
-        <v>15589070.88849233</v>
+        <v>16392423.73713207</v>
       </c>
       <c r="AF2" t="n">
         <v>1.33610009150732e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>118</v>
+        <v>117.4708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>14101271.84229244</v>
+        <v>14827953.82257078</v>
       </c>
     </row>
     <row r="3">
@@ -4433,28 +4433,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3933.250431594232</v>
+        <v>4246.347461600115</v>
       </c>
       <c r="AB3" t="n">
-        <v>5381.646763269956</v>
+        <v>5810.039932590129</v>
       </c>
       <c r="AC3" t="n">
-        <v>4868.029949371939</v>
+        <v>5255.537875865768</v>
       </c>
       <c r="AD3" t="n">
-        <v>3933250.431594233</v>
+        <v>4246347.461600115</v>
       </c>
       <c r="AE3" t="n">
-        <v>5381646.763269956</v>
+        <v>5810039.932590129</v>
       </c>
       <c r="AF3" t="n">
         <v>2.518136202911315e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>63</v>
+        <v>62.32916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>4868029.94937194</v>
+        <v>5255537.875865768</v>
       </c>
     </row>
     <row r="4">
@@ -4539,28 +4539,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3052.620716143144</v>
+        <v>3316.809305216065</v>
       </c>
       <c r="AB4" t="n">
-        <v>4176.730335948604</v>
+        <v>4538.204818696164</v>
       </c>
       <c r="AC4" t="n">
-        <v>3778.109054763355</v>
+        <v>4105.084920210096</v>
       </c>
       <c r="AD4" t="n">
-        <v>3052620.716143144</v>
+        <v>3316809.305216065</v>
       </c>
       <c r="AE4" t="n">
-        <v>4176730.335948604</v>
+        <v>4538204.818696164</v>
       </c>
       <c r="AF4" t="n">
         <v>2.950193379386898e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>54</v>
+        <v>53.20000000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>3778109.054763355</v>
+        <v>4105084.920210097</v>
       </c>
     </row>
     <row r="5">
@@ -4645,28 +4645,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2704.177820759248</v>
+        <v>2948.789367291472</v>
       </c>
       <c r="AB5" t="n">
-        <v>3699.975394268702</v>
+        <v>4034.663703733916</v>
       </c>
       <c r="AC5" t="n">
-        <v>3346.854935587638</v>
+        <v>3649.601062535473</v>
       </c>
       <c r="AD5" t="n">
-        <v>2704177.820759248</v>
+        <v>2948789.367291471</v>
       </c>
       <c r="AE5" t="n">
-        <v>3699975.394268702</v>
+        <v>4034663.703733916</v>
       </c>
       <c r="AF5" t="n">
         <v>3.175827423596902e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>50</v>
+        <v>49.425</v>
       </c>
       <c r="AH5" t="n">
-        <v>3346854.935587638</v>
+        <v>3649601.062535473</v>
       </c>
     </row>
     <row r="6">
@@ -4751,28 +4751,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2505.228029714839</v>
+        <v>2740.051054976714</v>
       </c>
       <c r="AB6" t="n">
-        <v>3427.763513116398</v>
+        <v>3749.05873594044</v>
       </c>
       <c r="AC6" t="n">
-        <v>3100.622574320745</v>
+        <v>3391.253832019127</v>
       </c>
       <c r="AD6" t="n">
-        <v>2505228.029714839</v>
+        <v>2740051.054976714</v>
       </c>
       <c r="AE6" t="n">
-        <v>3427763.513116398</v>
+        <v>3749058.73594044</v>
       </c>
       <c r="AF6" t="n">
         <v>3.3219810281937e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>48</v>
+        <v>47.24583333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>3100622.574320745</v>
+        <v>3391253.832019127</v>
       </c>
     </row>
     <row r="7">
@@ -4857,28 +4857,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2370.035281778698</v>
+        <v>2604.891461429496</v>
       </c>
       <c r="AB7" t="n">
-        <v>3242.786831107057</v>
+        <v>3564.127417228694</v>
       </c>
       <c r="AC7" t="n">
-        <v>2933.299807225979</v>
+        <v>3223.9720988125</v>
       </c>
       <c r="AD7" t="n">
-        <v>2370035.281778698</v>
+        <v>2604891.461429496</v>
       </c>
       <c r="AE7" t="n">
-        <v>3242786.831107058</v>
+        <v>3564127.417228694</v>
       </c>
       <c r="AF7" t="n">
         <v>3.419542326107541e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>46</v>
+        <v>45.89583333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>2933299.807225979</v>
+        <v>3223972.0988125</v>
       </c>
     </row>
     <row r="8">
@@ -4963,28 +4963,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2272.49467358144</v>
+        <v>2507.316687813458</v>
       </c>
       <c r="AB8" t="n">
-        <v>3109.327467783632</v>
+        <v>3430.62130727202</v>
       </c>
       <c r="AC8" t="n">
-        <v>2812.577618226754</v>
+        <v>3103.207624613094</v>
       </c>
       <c r="AD8" t="n">
-        <v>2272494.67358144</v>
+        <v>2507316.687813458</v>
       </c>
       <c r="AE8" t="n">
-        <v>3109327.467783632</v>
+        <v>3430621.30727202</v>
       </c>
       <c r="AF8" t="n">
         <v>3.49111239021422e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>45</v>
+        <v>44.95833333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>2812577.618226754</v>
+        <v>3103207.624613094</v>
       </c>
     </row>
     <row r="9">
@@ -5069,28 +5069,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2201.499630000199</v>
+        <v>2426.499968572945</v>
       </c>
       <c r="AB9" t="n">
-        <v>3012.188917075502</v>
+        <v>3320.044306625125</v>
       </c>
       <c r="AC9" t="n">
-        <v>2724.709834463399</v>
+        <v>3003.183937712147</v>
       </c>
       <c r="AD9" t="n">
-        <v>2201499.630000199</v>
+        <v>2426499.968572945</v>
       </c>
       <c r="AE9" t="n">
-        <v>3012188.917075502</v>
+        <v>3320044.306625125</v>
       </c>
       <c r="AF9" t="n">
         <v>3.547991756951634e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>45</v>
+        <v>44.2375</v>
       </c>
       <c r="AH9" t="n">
-        <v>2724709.834463399</v>
+        <v>3003183.937712147</v>
       </c>
     </row>
     <row r="10">
@@ -5175,28 +5175,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2130.196936807434</v>
+        <v>2355.264595187887</v>
       </c>
       <c r="AB10" t="n">
-        <v>2914.629426596172</v>
+        <v>3222.576926076807</v>
       </c>
       <c r="AC10" t="n">
-        <v>2636.461284829925</v>
+        <v>2915.018707167038</v>
       </c>
       <c r="AD10" t="n">
-        <v>2130196.936807434</v>
+        <v>2355264.595187887</v>
       </c>
       <c r="AE10" t="n">
-        <v>2914629.426596172</v>
+        <v>3222576.926076807</v>
       </c>
       <c r="AF10" t="n">
         <v>3.593193902703221e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>44</v>
+        <v>43.68333333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>2636461.284829925</v>
+        <v>2915018.707167037</v>
       </c>
     </row>
     <row r="11">
@@ -5281,28 +5281,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2115.683064287114</v>
+        <v>2340.750722667568</v>
       </c>
       <c r="AB11" t="n">
-        <v>2894.770905907005</v>
+        <v>3202.718405387639</v>
       </c>
       <c r="AC11" t="n">
-        <v>2618.498033483724</v>
+        <v>2897.055455820836</v>
       </c>
       <c r="AD11" t="n">
-        <v>2115683.064287114</v>
+        <v>2340750.722667567</v>
       </c>
       <c r="AE11" t="n">
-        <v>2894770.905907005</v>
+        <v>3202718.40538764</v>
       </c>
       <c r="AF11" t="n">
         <v>3.589427057223922e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>44</v>
+        <v>43.725</v>
       </c>
       <c r="AH11" t="n">
-        <v>2618498.033483724</v>
+        <v>2897055.455820836</v>
       </c>
     </row>
     <row r="12">
@@ -5387,28 +5387,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2034.647469664292</v>
+        <v>2249.893452385473</v>
       </c>
       <c r="AB12" t="n">
-        <v>2783.894430305939</v>
+        <v>3078.403479847801</v>
       </c>
       <c r="AC12" t="n">
-        <v>2518.203453097913</v>
+        <v>2784.604972297429</v>
       </c>
       <c r="AD12" t="n">
-        <v>2034647.469664292</v>
+        <v>2249893.452385473</v>
       </c>
       <c r="AE12" t="n">
-        <v>2783894.430305939</v>
+        <v>3078403.4798478</v>
       </c>
       <c r="AF12" t="n">
         <v>3.647813162153055e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>44</v>
+        <v>43.02500000000001</v>
       </c>
       <c r="AH12" t="n">
-        <v>2518203.453097912</v>
+        <v>2784604.972297429</v>
       </c>
     </row>
     <row r="13">
@@ -5493,28 +5493,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1978.288007556378</v>
+        <v>2193.601310085264</v>
       </c>
       <c r="AB13" t="n">
-        <v>2706.780927845905</v>
+        <v>3001.382087318603</v>
       </c>
       <c r="AC13" t="n">
-        <v>2448.449555083184</v>
+        <v>2714.934393371018</v>
       </c>
       <c r="AD13" t="n">
-        <v>1978288.007556378</v>
+        <v>2193601.310085264</v>
       </c>
       <c r="AE13" t="n">
-        <v>2706780.927845906</v>
+        <v>3001382.087318603</v>
       </c>
       <c r="AF13" t="n">
         <v>3.673427711412287e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>43</v>
+        <v>42.725</v>
       </c>
       <c r="AH13" t="n">
-        <v>2448449.555083184</v>
+        <v>2714934.393371019</v>
       </c>
     </row>
     <row r="14">
@@ -5599,28 +5599,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1952.072737229414</v>
+        <v>2167.386039758296</v>
       </c>
       <c r="AB14" t="n">
-        <v>2670.912038448449</v>
+        <v>2965.513197920972</v>
       </c>
       <c r="AC14" t="n">
-        <v>2416.003942147519</v>
+        <v>2682.488780435308</v>
       </c>
       <c r="AD14" t="n">
-        <v>1952072.737229414</v>
+        <v>2167386.039758296</v>
       </c>
       <c r="AE14" t="n">
-        <v>2670912.03844845</v>
+        <v>2965513.197920972</v>
       </c>
       <c r="AF14" t="n">
         <v>3.688118408781553e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>43</v>
+        <v>42.55833333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>2416003.942147519</v>
+        <v>2682488.780435308</v>
       </c>
     </row>
     <row r="15">
@@ -5705,28 +5705,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1956.085344684424</v>
+        <v>2171.398647213307</v>
       </c>
       <c r="AB15" t="n">
-        <v>2676.402264992141</v>
+        <v>2971.003424464664</v>
       </c>
       <c r="AC15" t="n">
-        <v>2420.970189175462</v>
+        <v>2687.455027463251</v>
       </c>
       <c r="AD15" t="n">
-        <v>1956085.344684424</v>
+        <v>2171398.647213306</v>
       </c>
       <c r="AE15" t="n">
-        <v>2676402.264992141</v>
+        <v>2971003.424464664</v>
       </c>
       <c r="AF15" t="n">
         <v>3.686611670589833e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>43</v>
+        <v>42.575</v>
       </c>
       <c r="AH15" t="n">
-        <v>2420970.189175462</v>
+        <v>2687455.027463251</v>
       </c>
     </row>
     <row r="16">
@@ -5811,28 +5811,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1959.377452344784</v>
+        <v>2174.690754873667</v>
       </c>
       <c r="AB16" t="n">
-        <v>2680.906671930587</v>
+        <v>2975.507831403109</v>
       </c>
       <c r="AC16" t="n">
-        <v>2425.044701837677</v>
+        <v>2691.529540125466</v>
       </c>
       <c r="AD16" t="n">
-        <v>1959377.452344784</v>
+        <v>2174690.754873667</v>
       </c>
       <c r="AE16" t="n">
-        <v>2680906.671930586</v>
+        <v>2975507.831403109</v>
       </c>
       <c r="AF16" t="n">
         <v>3.690378516069132e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>43</v>
+        <v>42.52916666666666</v>
       </c>
       <c r="AH16" t="n">
-        <v>2425044.701837677</v>
+        <v>2691529.540125466</v>
       </c>
     </row>
   </sheetData>
@@ -6108,28 +6108,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6981.264354956038</v>
+        <v>7436.114514365854</v>
       </c>
       <c r="AB2" t="n">
-        <v>9552.07388209778</v>
+        <v>10174.41993677513</v>
       </c>
       <c r="AC2" t="n">
-        <v>8640.437357209901</v>
+        <v>9203.387577896998</v>
       </c>
       <c r="AD2" t="n">
-        <v>6981264.354956038</v>
+        <v>7436114.514365854</v>
       </c>
       <c r="AE2" t="n">
-        <v>9552073.882097781</v>
+        <v>10174419.93677513</v>
       </c>
       <c r="AF2" t="n">
         <v>1.861736849990426e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>93</v>
+        <v>92.25</v>
       </c>
       <c r="AH2" t="n">
-        <v>8640437.3572099</v>
+        <v>9203387.577896997</v>
       </c>
     </row>
     <row r="3">
@@ -6214,28 +6214,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3136.966531087131</v>
+        <v>3417.600971213782</v>
       </c>
       <c r="AB3" t="n">
-        <v>4292.136001029709</v>
+        <v>4676.112422728725</v>
       </c>
       <c r="AC3" t="n">
-        <v>3882.500565141983</v>
+        <v>4229.830816068324</v>
       </c>
       <c r="AD3" t="n">
-        <v>3136966.531087131</v>
+        <v>3417600.971213782</v>
       </c>
       <c r="AE3" t="n">
-        <v>4292136.001029709</v>
+        <v>4676112.422728725</v>
       </c>
       <c r="AF3" t="n">
         <v>3.008372209006003e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>58</v>
+        <v>57.08333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>3882500.565141983</v>
+        <v>4229830.816068323</v>
       </c>
     </row>
     <row r="4">
@@ -6320,28 +6320,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2535.6327237945</v>
+        <v>2787.191351052045</v>
       </c>
       <c r="AB4" t="n">
-        <v>3469.364556916626</v>
+        <v>3813.558168713798</v>
       </c>
       <c r="AC4" t="n">
-        <v>3138.25327288811</v>
+        <v>3449.597529454115</v>
       </c>
       <c r="AD4" t="n">
-        <v>2535632.7237945</v>
+        <v>2787191.351052045</v>
       </c>
       <c r="AE4" t="n">
-        <v>3469364.556916626</v>
+        <v>3813558.168713798</v>
       </c>
       <c r="AF4" t="n">
         <v>3.42094661388544e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>51</v>
+        <v>50.2</v>
       </c>
       <c r="AH4" t="n">
-        <v>3138253.27288811</v>
+        <v>3449597.529454115</v>
       </c>
     </row>
     <row r="5">
@@ -6426,28 +6426,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2279.293081020837</v>
+        <v>2511.524775396947</v>
       </c>
       <c r="AB5" t="n">
-        <v>3118.629348766784</v>
+        <v>3436.378998351472</v>
       </c>
       <c r="AC5" t="n">
-        <v>2820.991740744146</v>
+        <v>3108.415809736893</v>
       </c>
       <c r="AD5" t="n">
-        <v>2279293.081020837</v>
+        <v>2511524.775396946</v>
       </c>
       <c r="AE5" t="n">
-        <v>3118629.348766784</v>
+        <v>3436378.998351471</v>
       </c>
       <c r="AF5" t="n">
         <v>3.635683142299213e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>48</v>
+        <v>47.23333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>2820991.740744146</v>
+        <v>3108415.809736893</v>
       </c>
     </row>
     <row r="6">
@@ -6532,28 +6532,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2124.270539671537</v>
+        <v>2356.535388436573</v>
       </c>
       <c r="AB6" t="n">
-        <v>2906.520668580649</v>
+        <v>3224.315681463101</v>
       </c>
       <c r="AC6" t="n">
-        <v>2629.126415298691</v>
+        <v>2916.591518179622</v>
       </c>
       <c r="AD6" t="n">
-        <v>2124270.539671537</v>
+        <v>2356535.388436573</v>
       </c>
       <c r="AE6" t="n">
-        <v>2906520.668580649</v>
+        <v>3224315.681463101</v>
       </c>
       <c r="AF6" t="n">
         <v>3.768811546670899e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>46</v>
+        <v>45.57083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>2629126.415298691</v>
+        <v>2916591.518179622</v>
       </c>
     </row>
     <row r="7">
@@ -6638,28 +6638,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2017.732124894589</v>
+        <v>2240.249104701812</v>
       </c>
       <c r="AB7" t="n">
-        <v>2760.750109339689</v>
+        <v>3065.207657868424</v>
       </c>
       <c r="AC7" t="n">
-        <v>2497.267993641422</v>
+        <v>2772.668541047313</v>
       </c>
       <c r="AD7" t="n">
-        <v>2017732.124894589</v>
+        <v>2240249.104701812</v>
       </c>
       <c r="AE7" t="n">
-        <v>2760750.109339688</v>
+        <v>3065207.657868424</v>
       </c>
       <c r="AF7" t="n">
         <v>3.859899402293632e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>45</v>
+        <v>44.49166666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>2497267.993641422</v>
+        <v>2772668.541047313</v>
       </c>
     </row>
     <row r="8">
@@ -6744,28 +6744,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1926.163023659801</v>
+        <v>2148.747323274726</v>
       </c>
       <c r="AB8" t="n">
-        <v>2635.461225286616</v>
+        <v>2940.010883746013</v>
       </c>
       <c r="AC8" t="n">
-        <v>2383.936504838322</v>
+        <v>2659.420371332485</v>
       </c>
       <c r="AD8" t="n">
-        <v>1926163.023659801</v>
+        <v>2148747.323274726</v>
       </c>
       <c r="AE8" t="n">
-        <v>2635461.225286616</v>
+        <v>2940010.883746014</v>
       </c>
       <c r="AF8" t="n">
         <v>3.930791308027162e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>44</v>
+        <v>43.6875</v>
       </c>
       <c r="AH8" t="n">
-        <v>2383936.504838322</v>
+        <v>2659420.371332485</v>
       </c>
     </row>
     <row r="9">
@@ -6850,28 +6850,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1826.940855187706</v>
+        <v>2039.878771071304</v>
       </c>
       <c r="AB9" t="n">
-        <v>2499.701077009962</v>
+        <v>2791.052127679743</v>
       </c>
       <c r="AC9" t="n">
-        <v>2261.133114572627</v>
+        <v>2524.678029880252</v>
       </c>
       <c r="AD9" t="n">
-        <v>1826940.855187706</v>
+        <v>2039878.771071304</v>
       </c>
       <c r="AE9" t="n">
-        <v>2499701.077009962</v>
+        <v>2791052.127679743</v>
       </c>
       <c r="AF9" t="n">
         <v>4.004980511701785e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>43</v>
+        <v>42.87916666666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>2261133.114572627</v>
+        <v>2524678.029880252</v>
       </c>
     </row>
     <row r="10">
@@ -6956,28 +6956,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1804.225171274652</v>
+        <v>2017.16308715825</v>
       </c>
       <c r="AB10" t="n">
-        <v>2468.620476134875</v>
+        <v>2759.971526804656</v>
       </c>
       <c r="AC10" t="n">
-        <v>2233.018802623161</v>
+        <v>2496.563717930786</v>
       </c>
       <c r="AD10" t="n">
-        <v>1804225.171274652</v>
+        <v>2017163.08715825</v>
       </c>
       <c r="AE10" t="n">
-        <v>2468620.476134875</v>
+        <v>2759971.526804656</v>
       </c>
       <c r="AF10" t="n">
         <v>4.007453485157606e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>43</v>
+        <v>42.85416666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>2233018.802623161</v>
+        <v>2496563.717930785</v>
       </c>
     </row>
     <row r="11">
@@ -7062,28 +7062,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1798.240184879277</v>
+        <v>2011.178100762874</v>
       </c>
       <c r="AB11" t="n">
-        <v>2460.431553709758</v>
+        <v>2751.782604379538</v>
       </c>
       <c r="AC11" t="n">
-        <v>2225.611419461072</v>
+        <v>2489.156334768697</v>
       </c>
       <c r="AD11" t="n">
-        <v>1798240.184879277</v>
+        <v>2011178.100762874</v>
       </c>
       <c r="AE11" t="n">
-        <v>2460431.553709758</v>
+        <v>2751782.604379538</v>
       </c>
       <c r="AF11" t="n">
         <v>4.016521054495616e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>43</v>
+        <v>42.75833333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>2225611.419461072</v>
+        <v>2489156.334768697</v>
       </c>
     </row>
     <row r="12">
@@ -7168,28 +7168,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1805.047656529812</v>
+        <v>2017.98557241341</v>
       </c>
       <c r="AB12" t="n">
-        <v>2469.745836746474</v>
+        <v>2761.096887416255</v>
       </c>
       <c r="AC12" t="n">
-        <v>2234.036760397442</v>
+        <v>2497.581675705067</v>
       </c>
       <c r="AD12" t="n">
-        <v>1805047.656529812</v>
+        <v>2017985.57241341</v>
       </c>
       <c r="AE12" t="n">
-        <v>2469745.836746474</v>
+        <v>2761096.887416255</v>
       </c>
       <c r="AF12" t="n">
         <v>4.016108892252979e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>43</v>
+        <v>42.75833333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>2234036.760397442</v>
+        <v>2497581.675705067</v>
       </c>
     </row>
   </sheetData>
@@ -7465,28 +7465,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2432.147611745905</v>
+        <v>2722.065049421084</v>
       </c>
       <c r="AB2" t="n">
-        <v>3327.771661170799</v>
+        <v>3724.449489652663</v>
       </c>
       <c r="AC2" t="n">
-        <v>3010.173804385393</v>
+        <v>3368.993257657761</v>
       </c>
       <c r="AD2" t="n">
-        <v>2432147.611745905</v>
+        <v>2722065.049421085</v>
       </c>
       <c r="AE2" t="n">
-        <v>3327771.661170799</v>
+        <v>3724449.489652663</v>
       </c>
       <c r="AF2" t="n">
         <v>4.080525826954848e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>59</v>
+        <v>58.74166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3010173.804385393</v>
+        <v>3368993.257657761</v>
       </c>
     </row>
     <row r="3">
@@ -7571,28 +7571,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1636.506578904031</v>
+        <v>1860.936655430982</v>
       </c>
       <c r="AB3" t="n">
-        <v>2239.140498831307</v>
+        <v>2546.215630691669</v>
       </c>
       <c r="AC3" t="n">
-        <v>2025.440072276274</v>
+        <v>2303.208384534538</v>
       </c>
       <c r="AD3" t="n">
-        <v>1636506.578904031</v>
+        <v>1860936.655430982</v>
       </c>
       <c r="AE3" t="n">
-        <v>2239140.498831307</v>
+        <v>2546215.630691669</v>
       </c>
       <c r="AF3" t="n">
         <v>5.097637015740435e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>48</v>
+        <v>47.025</v>
       </c>
       <c r="AH3" t="n">
-        <v>2025440.072276274</v>
+        <v>2303208.384534538</v>
       </c>
     </row>
     <row r="4">
@@ -7677,28 +7677,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1451.087512667137</v>
+        <v>1666.229427262066</v>
       </c>
       <c r="AB4" t="n">
-        <v>1985.44195229411</v>
+        <v>2279.808611234295</v>
       </c>
       <c r="AC4" t="n">
-        <v>1795.954158952441</v>
+        <v>2062.226877109576</v>
       </c>
       <c r="AD4" t="n">
-        <v>1451087.512667137</v>
+        <v>1666229.427262066</v>
       </c>
       <c r="AE4" t="n">
-        <v>1985441.95229411</v>
+        <v>2279808.611234295</v>
       </c>
       <c r="AF4" t="n">
         <v>5.370899354356472e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>45</v>
+        <v>44.62916666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1795954.158952441</v>
+        <v>2062226.877109575</v>
       </c>
     </row>
     <row r="5">
@@ -7783,28 +7783,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1458.661850099039</v>
+        <v>1673.803764693969</v>
       </c>
       <c r="AB5" t="n">
-        <v>1995.805494924623</v>
+        <v>2290.172153864808</v>
       </c>
       <c r="AC5" t="n">
-        <v>1805.328619619621</v>
+        <v>2071.601337776755</v>
       </c>
       <c r="AD5" t="n">
-        <v>1458661.850099039</v>
+        <v>1673803.764693968</v>
       </c>
       <c r="AE5" t="n">
-        <v>1995805.494924623</v>
+        <v>2290172.153864808</v>
       </c>
       <c r="AF5" t="n">
         <v>5.370324065222543e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>45</v>
+        <v>44.6375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1805328.619619621</v>
+        <v>2071601.337776755</v>
       </c>
     </row>
   </sheetData>
@@ -8080,28 +8080,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3528.964037907534</v>
+        <v>3860.785661566734</v>
       </c>
       <c r="AB2" t="n">
-        <v>4828.484283570887</v>
+        <v>5282.497267998301</v>
       </c>
       <c r="AC2" t="n">
-        <v>4367.660520366953</v>
+        <v>4778.343142771824</v>
       </c>
       <c r="AD2" t="n">
-        <v>3528964.037907534</v>
+        <v>3860785.661566734</v>
       </c>
       <c r="AE2" t="n">
-        <v>4828484.283570887</v>
+        <v>5282497.267998301</v>
       </c>
       <c r="AF2" t="n">
         <v>3.058449465619112e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>68</v>
+        <v>67.875</v>
       </c>
       <c r="AH2" t="n">
-        <v>4367660.520366954</v>
+        <v>4778343.142771824</v>
       </c>
     </row>
     <row r="3">
@@ -8186,28 +8186,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2120.282996081364</v>
+        <v>2366.694168776552</v>
       </c>
       <c r="AB3" t="n">
-        <v>2901.064735522567</v>
+        <v>3238.215372898019</v>
       </c>
       <c r="AC3" t="n">
-        <v>2624.191188834222</v>
+        <v>2929.16464257233</v>
       </c>
       <c r="AD3" t="n">
-        <v>2120282.996081364</v>
+        <v>2366694.168776552</v>
       </c>
       <c r="AE3" t="n">
-        <v>2901064.735522567</v>
+        <v>3238215.372898019</v>
       </c>
       <c r="AF3" t="n">
         <v>4.130077548457801e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>51</v>
+        <v>50.25833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2624191.188834222</v>
+        <v>2929164.64257233</v>
       </c>
     </row>
     <row r="4">
@@ -8292,28 +8292,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1802.517632854124</v>
+        <v>2020.549426001434</v>
       </c>
       <c r="AB4" t="n">
-        <v>2466.284146736631</v>
+        <v>2764.604865004627</v>
       </c>
       <c r="AC4" t="n">
-        <v>2230.905449223626</v>
+        <v>2500.754856835883</v>
       </c>
       <c r="AD4" t="n">
-        <v>1802517.632854125</v>
+        <v>2020549.426001434</v>
       </c>
       <c r="AE4" t="n">
-        <v>2466284.146736631</v>
+        <v>2764604.865004627</v>
       </c>
       <c r="AF4" t="n">
         <v>4.502731107715514e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>47</v>
+        <v>46.1</v>
       </c>
       <c r="AH4" t="n">
-        <v>2230905.449223626</v>
+        <v>2500754.856835883</v>
       </c>
     </row>
     <row r="5">
@@ -8398,28 +8398,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1631.171593207301</v>
+        <v>1839.720816226132</v>
       </c>
       <c r="AB5" t="n">
-        <v>2231.840936038083</v>
+        <v>2517.187183514826</v>
       </c>
       <c r="AC5" t="n">
-        <v>2018.837169511036</v>
+        <v>2276.950371614572</v>
       </c>
       <c r="AD5" t="n">
-        <v>1631171.593207301</v>
+        <v>1839720.816226132</v>
       </c>
       <c r="AE5" t="n">
-        <v>2231840.936038083</v>
+        <v>2517187.183514826</v>
       </c>
       <c r="AF5" t="n">
         <v>4.700516486091598e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>45</v>
+        <v>44.16249999999999</v>
       </c>
       <c r="AH5" t="n">
-        <v>2018837.169511036</v>
+        <v>2276950.371614572</v>
       </c>
     </row>
     <row r="6">
@@ -8504,28 +8504,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1572.097045827907</v>
+        <v>1790.127827945359</v>
       </c>
       <c r="AB6" t="n">
-        <v>2151.012534128501</v>
+        <v>2449.331869060843</v>
       </c>
       <c r="AC6" t="n">
-        <v>1945.722916836329</v>
+        <v>2215.571073136544</v>
       </c>
       <c r="AD6" t="n">
-        <v>1572097.045827907</v>
+        <v>1790127.827945359</v>
       </c>
       <c r="AE6" t="n">
-        <v>2151012.534128501</v>
+        <v>2449331.869060843</v>
       </c>
       <c r="AF6" t="n">
         <v>4.756813079936681e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>44</v>
+        <v>43.6375</v>
       </c>
       <c r="AH6" t="n">
-        <v>1945722.916836329</v>
+        <v>2215571.073136544</v>
       </c>
     </row>
     <row r="7">
@@ -8610,28 +8610,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1576.194159141443</v>
+        <v>1794.224941258896</v>
       </c>
       <c r="AB7" t="n">
-        <v>2156.618385315964</v>
+        <v>2454.937720248306</v>
       </c>
       <c r="AC7" t="n">
-        <v>1950.793753454322</v>
+        <v>2220.641909754538</v>
       </c>
       <c r="AD7" t="n">
-        <v>1576194.159141443</v>
+        <v>1794224.941258896</v>
       </c>
       <c r="AE7" t="n">
-        <v>2156618.385315964</v>
+        <v>2454937.720248306</v>
       </c>
       <c r="AF7" t="n">
         <v>4.761795079391998e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>44</v>
+        <v>43.59166666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1950793.753454322</v>
+        <v>2220641.909754538</v>
       </c>
     </row>
   </sheetData>
@@ -8907,28 +8907,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1792.517935814738</v>
+        <v>2051.450248911357</v>
       </c>
       <c r="AB2" t="n">
-        <v>2452.602120091845</v>
+        <v>2806.884734158077</v>
       </c>
       <c r="AC2" t="n">
-        <v>2218.529215998974</v>
+        <v>2538.999594617496</v>
       </c>
       <c r="AD2" t="n">
-        <v>1792517.935814738</v>
+        <v>2051450.248911357</v>
       </c>
       <c r="AE2" t="n">
-        <v>2452602.120091845</v>
+        <v>2806884.734158077</v>
       </c>
       <c r="AF2" t="n">
         <v>5.181050457479487e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>53</v>
+        <v>52.99166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2218529.215998974</v>
+        <v>2538999.594617496</v>
       </c>
     </row>
     <row r="3">
@@ -9013,28 +9013,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1375.541070593775</v>
+        <v>1588.252344183145</v>
       </c>
       <c r="AB3" t="n">
-        <v>1882.075977375534</v>
+        <v>2173.116926059601</v>
       </c>
       <c r="AC3" t="n">
-        <v>1702.453287605037</v>
+        <v>1965.717696625233</v>
       </c>
       <c r="AD3" t="n">
-        <v>1375541.070593775</v>
+        <v>1588252.344183145</v>
       </c>
       <c r="AE3" t="n">
-        <v>1882075.977375534</v>
+        <v>2173116.926059601</v>
       </c>
       <c r="AF3" t="n">
         <v>5.961206090400218e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>47</v>
+        <v>46.05833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1702453.287605037</v>
+        <v>1965717.696625233</v>
       </c>
     </row>
     <row r="4">
@@ -9119,28 +9119,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1382.675701728873</v>
+        <v>1595.386975318243</v>
       </c>
       <c r="AB4" t="n">
-        <v>1891.837894452286</v>
+        <v>2182.878843136352</v>
       </c>
       <c r="AC4" t="n">
-        <v>1711.28354101692</v>
+        <v>1974.547950037117</v>
       </c>
       <c r="AD4" t="n">
-        <v>1382675.701728872</v>
+        <v>1595386.975318243</v>
       </c>
       <c r="AE4" t="n">
-        <v>1891837.894452286</v>
+        <v>2182878.843136352</v>
       </c>
       <c r="AF4" t="n">
         <v>5.96581849701377e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>47</v>
+        <v>46.02083333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1711283.54101692</v>
+        <v>1974547.950037117</v>
       </c>
     </row>
   </sheetData>
@@ -9416,28 +9416,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7847.583415747632</v>
+        <v>8332.961519851409</v>
       </c>
       <c r="AB2" t="n">
-        <v>10737.40984037248</v>
+        <v>11401.52557577798</v>
       </c>
       <c r="AC2" t="n">
-        <v>9712.646515256289</v>
+        <v>10313.37997696695</v>
       </c>
       <c r="AD2" t="n">
-        <v>7847583.415747632</v>
+        <v>8332961.519851409</v>
       </c>
       <c r="AE2" t="n">
-        <v>10737409.84037248</v>
+        <v>11401525.57577798</v>
       </c>
       <c r="AF2" t="n">
         <v>1.716210661727718e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>98</v>
+        <v>97.64583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>9712646.515256289</v>
+        <v>10313379.97696695</v>
       </c>
     </row>
     <row r="3">
@@ -9522,28 +9522,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3324.818128481028</v>
+        <v>3615.950338800566</v>
       </c>
       <c r="AB3" t="n">
-        <v>4549.162844011633</v>
+        <v>4947.502778017491</v>
       </c>
       <c r="AC3" t="n">
-        <v>4114.997126969142</v>
+        <v>4475.320056747076</v>
       </c>
       <c r="AD3" t="n">
-        <v>3324818.128481028</v>
+        <v>3615950.338800565</v>
       </c>
       <c r="AE3" t="n">
-        <v>4549162.844011633</v>
+        <v>4947502.778017491</v>
       </c>
       <c r="AF3" t="n">
         <v>2.871344718554998e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>59</v>
+        <v>58.36249999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>4114997.126969142</v>
+        <v>4475320.056747076</v>
       </c>
     </row>
     <row r="4">
@@ -9628,28 +9628,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2655.894791459591</v>
+        <v>2917.933370071572</v>
       </c>
       <c r="AB4" t="n">
-        <v>3633.912423483989</v>
+        <v>3992.445167067123</v>
       </c>
       <c r="AC4" t="n">
-        <v>3287.096922014659</v>
+        <v>3611.41180375407</v>
       </c>
       <c r="AD4" t="n">
-        <v>2655894.791459591</v>
+        <v>2917933.370071571</v>
       </c>
       <c r="AE4" t="n">
-        <v>3633912.423483989</v>
+        <v>3992445.167067123</v>
       </c>
       <c r="AF4" t="n">
         <v>3.28923618270665e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>51</v>
+        <v>50.95</v>
       </c>
       <c r="AH4" t="n">
-        <v>3287096.922014658</v>
+        <v>3611411.80375407</v>
       </c>
     </row>
     <row r="5">
@@ -9734,28 +9734,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2375.152704980911</v>
+        <v>2617.80759161402</v>
       </c>
       <c r="AB5" t="n">
-        <v>3249.788715297105</v>
+        <v>3581.799836366607</v>
       </c>
       <c r="AC5" t="n">
-        <v>2939.633441416135</v>
+        <v>3239.957887071286</v>
       </c>
       <c r="AD5" t="n">
-        <v>2375152.704980912</v>
+        <v>2617807.59161402</v>
       </c>
       <c r="AE5" t="n">
-        <v>3249788.715297105</v>
+        <v>3581799.836366607</v>
       </c>
       <c r="AF5" t="n">
         <v>3.511253591957576e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>48</v>
+        <v>47.725</v>
       </c>
       <c r="AH5" t="n">
-        <v>2939633.441416135</v>
+        <v>3239957.887071286</v>
       </c>
     </row>
     <row r="6">
@@ -9840,28 +9840,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2208.448012196278</v>
+        <v>2441.393970130559</v>
       </c>
       <c r="AB6" t="n">
-        <v>3021.696000137165</v>
+        <v>3340.422936633227</v>
       </c>
       <c r="AC6" t="n">
-        <v>2733.309574860932</v>
+        <v>3021.617659873863</v>
       </c>
       <c r="AD6" t="n">
-        <v>2208448.012196278</v>
+        <v>2441393.97013056</v>
       </c>
       <c r="AE6" t="n">
-        <v>3021696.000137165</v>
+        <v>3340422.936633227</v>
       </c>
       <c r="AF6" t="n">
         <v>3.650818883642487e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>46</v>
+        <v>45.90416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2733309.574860932</v>
+        <v>3021617.659873863</v>
       </c>
     </row>
     <row r="7">
@@ -9946,28 +9946,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2104.060272411957</v>
+        <v>2327.331467066195</v>
       </c>
       <c r="AB7" t="n">
-        <v>2878.868089302027</v>
+        <v>3184.357587858065</v>
       </c>
       <c r="AC7" t="n">
-        <v>2604.112959375781</v>
+        <v>2880.446968946716</v>
       </c>
       <c r="AD7" t="n">
-        <v>2104060.272411957</v>
+        <v>2327331.467066195</v>
       </c>
       <c r="AE7" t="n">
-        <v>2878868.089302027</v>
+        <v>3184357.587858065</v>
       </c>
       <c r="AF7" t="n">
         <v>3.736890850272376e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>45</v>
+        <v>44.84583333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>2604112.959375781</v>
+        <v>2880446.968946716</v>
       </c>
     </row>
     <row r="8">
@@ -10052,28 +10052,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2022.39048549944</v>
+        <v>2235.919597065928</v>
       </c>
       <c r="AB8" t="n">
-        <v>2767.123883831611</v>
+        <v>3059.283834516609</v>
       </c>
       <c r="AC8" t="n">
-        <v>2503.033464041484</v>
+        <v>2767.310079082058</v>
       </c>
       <c r="AD8" t="n">
-        <v>2022390.48549944</v>
+        <v>2235919.597065927</v>
       </c>
       <c r="AE8" t="n">
-        <v>2767123.883831611</v>
+        <v>3059283.834516609</v>
       </c>
       <c r="AF8" t="n">
         <v>3.806070187937519e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>45</v>
+        <v>44.02916666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>2503033.464041485</v>
+        <v>2767310.079082058</v>
       </c>
     </row>
     <row r="9">
@@ -10158,28 +10158,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1940.20098487211</v>
+        <v>2153.695931019813</v>
       </c>
       <c r="AB9" t="n">
-        <v>2654.668583128437</v>
+        <v>2946.781787180008</v>
       </c>
       <c r="AC9" t="n">
-        <v>2401.310739405415</v>
+        <v>2665.545069245761</v>
       </c>
       <c r="AD9" t="n">
-        <v>1940200.984872109</v>
+        <v>2153695.931019813</v>
       </c>
       <c r="AE9" t="n">
-        <v>2654668.583128436</v>
+        <v>2946781.787180007</v>
       </c>
       <c r="AF9" t="n">
         <v>3.863585567507958e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>44</v>
+        <v>43.375</v>
       </c>
       <c r="AH9" t="n">
-        <v>2401310.739405415</v>
+        <v>2665545.069245761</v>
       </c>
     </row>
     <row r="10">
@@ -10264,28 +10264,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1891.838054862589</v>
+        <v>2105.333001010293</v>
       </c>
       <c r="AB10" t="n">
-        <v>2588.496288667522</v>
+        <v>2880.609492719093</v>
       </c>
       <c r="AC10" t="n">
-        <v>2341.453835854451</v>
+        <v>2605.688165694798</v>
       </c>
       <c r="AD10" t="n">
-        <v>1891838.054862589</v>
+        <v>2105333.001010293</v>
       </c>
       <c r="AE10" t="n">
-        <v>2588496.288667522</v>
+        <v>2880609.492719093</v>
       </c>
       <c r="AF10" t="n">
         <v>3.890131127309699e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>44</v>
+        <v>43.07916666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>2341453.835854451</v>
+        <v>2605688.165694797</v>
       </c>
     </row>
     <row r="11">
@@ -10370,28 +10370,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1839.816216307058</v>
+        <v>2053.378482262466</v>
       </c>
       <c r="AB11" t="n">
-        <v>2517.317714114303</v>
+        <v>2809.523028096716</v>
       </c>
       <c r="AC11" t="n">
-        <v>2277.068444556835</v>
+        <v>2541.3860934855</v>
       </c>
       <c r="AD11" t="n">
-        <v>1839816.216307058</v>
+        <v>2053378.482262466</v>
       </c>
       <c r="AE11" t="n">
-        <v>2517317.714114303</v>
+        <v>2809523.028096716</v>
       </c>
       <c r="AF11" t="n">
         <v>3.919492125272231e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>43</v>
+        <v>42.75416666666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>2277068.444556835</v>
+        <v>2541386.0934855</v>
       </c>
     </row>
     <row r="12">
@@ -10476,28 +10476,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1839.967280178226</v>
+        <v>2053.529546133635</v>
       </c>
       <c r="AB12" t="n">
-        <v>2517.524406367304</v>
+        <v>2809.729720349716</v>
       </c>
       <c r="AC12" t="n">
-        <v>2277.255410391303</v>
+        <v>2541.573059319968</v>
       </c>
       <c r="AD12" t="n">
-        <v>1839967.280178227</v>
+        <v>2053529.546133634</v>
       </c>
       <c r="AE12" t="n">
-        <v>2517524.406367303</v>
+        <v>2809729.720349716</v>
       </c>
       <c r="AF12" t="n">
         <v>3.922307563433022e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>43</v>
+        <v>42.72916666666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>2277255.410391303</v>
+        <v>2541573.059319968</v>
       </c>
     </row>
   </sheetData>
@@ -10773,28 +10773,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1486.628106119405</v>
+        <v>1716.298745389913</v>
       </c>
       <c r="AB2" t="n">
-        <v>2034.070160195826</v>
+        <v>2348.315661199234</v>
       </c>
       <c r="AC2" t="n">
-        <v>1839.941358942136</v>
+        <v>2124.19571037611</v>
       </c>
       <c r="AD2" t="n">
-        <v>1486628.106119405</v>
+        <v>1716298.745389913</v>
       </c>
       <c r="AE2" t="n">
-        <v>2034070.160195827</v>
+        <v>2348315.661199234</v>
       </c>
       <c r="AF2" t="n">
         <v>6.00788107287508e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>51</v>
+        <v>50.00416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1839941.358942136</v>
+        <v>2124195.71037611</v>
       </c>
     </row>
     <row r="3">
@@ -10879,28 +10879,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1335.253153622873</v>
+        <v>1555.700109111472</v>
       </c>
       <c r="AB3" t="n">
-        <v>1826.95227199849</v>
+        <v>2128.57752193128</v>
       </c>
       <c r="AC3" t="n">
-        <v>1652.590511302572</v>
+        <v>1925.429070715474</v>
       </c>
       <c r="AD3" t="n">
-        <v>1335253.153622873</v>
+        <v>1555700.109111472</v>
       </c>
       <c r="AE3" t="n">
-        <v>1826952.27199849</v>
+        <v>2128577.52193128</v>
       </c>
       <c r="AF3" t="n">
         <v>6.35539081451984e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>48</v>
+        <v>47.27083333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1652590.511302572</v>
+        <v>1925429.070715474</v>
       </c>
     </row>
   </sheetData>
@@ -11176,28 +11176,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4969.616231544936</v>
+        <v>5362.639930415907</v>
       </c>
       <c r="AB2" t="n">
-        <v>6799.648171994839</v>
+        <v>7337.400535772006</v>
       </c>
       <c r="AC2" t="n">
-        <v>6150.699293825543</v>
+        <v>6637.129326743979</v>
       </c>
       <c r="AD2" t="n">
-        <v>4969616.231544936</v>
+        <v>5362639.930415907</v>
       </c>
       <c r="AE2" t="n">
-        <v>6799648.171994839</v>
+        <v>7337400.535772006</v>
       </c>
       <c r="AF2" t="n">
         <v>2.371714495388972e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>79</v>
+        <v>78.74166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>6150699.293825543</v>
+        <v>6637129.326743979</v>
       </c>
     </row>
     <row r="3">
@@ -11282,28 +11282,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2605.80871397862</v>
+        <v>2874.216809081664</v>
       </c>
       <c r="AB3" t="n">
-        <v>3565.382442632731</v>
+        <v>3932.630239682175</v>
       </c>
       <c r="AC3" t="n">
-        <v>3225.107346353416</v>
+        <v>3557.305529087967</v>
       </c>
       <c r="AD3" t="n">
-        <v>2605808.71397862</v>
+        <v>2874216.809081664</v>
       </c>
       <c r="AE3" t="n">
-        <v>3565382.442632732</v>
+        <v>3932630.239682175</v>
       </c>
       <c r="AF3" t="n">
         <v>3.487657256824826e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>54</v>
+        <v>53.54166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>3225107.346353416</v>
+        <v>3557305.529087966</v>
       </c>
     </row>
     <row r="4">
@@ -11388,28 +11388,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2169.951117032441</v>
+        <v>2400.006448030972</v>
       </c>
       <c r="AB4" t="n">
-        <v>2969.022849810679</v>
+        <v>3283.794703007959</v>
       </c>
       <c r="AC4" t="n">
-        <v>2685.663476074488</v>
+        <v>2970.393945387566</v>
       </c>
       <c r="AD4" t="n">
-        <v>2169951.117032441</v>
+        <v>2400006.448030972</v>
       </c>
       <c r="AE4" t="n">
-        <v>2969022.849810679</v>
+        <v>3283794.703007958</v>
       </c>
       <c r="AF4" t="n">
         <v>3.881150326921484e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>49</v>
+        <v>48.1125</v>
       </c>
       <c r="AH4" t="n">
-        <v>2685663.476074488</v>
+        <v>2970393.945387566</v>
       </c>
     </row>
     <row r="5">
@@ -11494,28 +11494,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1960.639352178427</v>
+        <v>2190.693672147098</v>
       </c>
       <c r="AB5" t="n">
-        <v>2682.633258954068</v>
+        <v>2997.4037288155</v>
       </c>
       <c r="AC5" t="n">
-        <v>2426.606505818917</v>
+        <v>2711.335723819904</v>
       </c>
       <c r="AD5" t="n">
-        <v>1960639.352178427</v>
+        <v>2190693.672147098</v>
       </c>
       <c r="AE5" t="n">
-        <v>2682633.258954068</v>
+        <v>2997403.728815501</v>
       </c>
       <c r="AF5" t="n">
         <v>4.085515748292869e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>46</v>
+        <v>45.70833333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>2426606.505818917</v>
+        <v>2711335.723819904</v>
       </c>
     </row>
     <row r="6">
@@ -11600,28 +11600,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1832.323851313221</v>
+        <v>2052.722407690595</v>
       </c>
       <c r="AB6" t="n">
-        <v>2507.066329789921</v>
+        <v>2808.625357923515</v>
       </c>
       <c r="AC6" t="n">
-        <v>2267.795437964463</v>
+        <v>2540.574095693742</v>
       </c>
       <c r="AD6" t="n">
-        <v>1832323.851313221</v>
+        <v>2052722.407690595</v>
       </c>
       <c r="AE6" t="n">
-        <v>2507066.329789921</v>
+        <v>2808625.357923515</v>
       </c>
       <c r="AF6" t="n">
         <v>4.213244136649986e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>45</v>
+        <v>44.32083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>2267795.437964464</v>
+        <v>2540574.095693742</v>
       </c>
     </row>
     <row r="7">
@@ -11706,28 +11706,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1727.31688826731</v>
+        <v>1938.161166279872</v>
       </c>
       <c r="AB7" t="n">
-        <v>2363.391170370246</v>
+        <v>2651.877613340092</v>
       </c>
       <c r="AC7" t="n">
-        <v>2137.83243411045</v>
+        <v>2398.786135856519</v>
       </c>
       <c r="AD7" t="n">
-        <v>1727316.88826731</v>
+        <v>1938161.166279872</v>
       </c>
       <c r="AE7" t="n">
-        <v>2363391.170370246</v>
+        <v>2651877.613340091</v>
       </c>
       <c r="AF7" t="n">
         <v>4.30377443295924e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>44</v>
+        <v>43.3875</v>
       </c>
       <c r="AH7" t="n">
-        <v>2137832.43411045</v>
+        <v>2398786.135856519</v>
       </c>
     </row>
     <row r="8">
@@ -11812,28 +11812,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1684.834967883021</v>
+        <v>1895.679245895583</v>
       </c>
       <c r="AB8" t="n">
-        <v>2305.265532730407</v>
+        <v>2593.751975700253</v>
       </c>
       <c r="AC8" t="n">
-        <v>2085.254225747112</v>
+        <v>2346.207927493182</v>
       </c>
       <c r="AD8" t="n">
-        <v>1684834.967883021</v>
+        <v>1895679.245895583</v>
       </c>
       <c r="AE8" t="n">
-        <v>2305265.532730407</v>
+        <v>2593751.975700253</v>
       </c>
       <c r="AF8" t="n">
         <v>4.340972525007101e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>44</v>
+        <v>43.01666666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>2085254.225747112</v>
+        <v>2346207.927493182</v>
       </c>
     </row>
     <row r="9">
@@ -11918,28 +11918,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1690.389224841006</v>
+        <v>1901.233502853568</v>
       </c>
       <c r="AB9" t="n">
-        <v>2312.865112136845</v>
+        <v>2601.351555106691</v>
       </c>
       <c r="AC9" t="n">
-        <v>2092.128511961077</v>
+        <v>2353.082213707145</v>
       </c>
       <c r="AD9" t="n">
-        <v>1690389.224841006</v>
+        <v>1901233.502853568</v>
       </c>
       <c r="AE9" t="n">
-        <v>2312865.112136845</v>
+        <v>2601351.555106691</v>
       </c>
       <c r="AF9" t="n">
         <v>4.340972525007101e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>44</v>
+        <v>43.02083333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>2092128.511961076</v>
+        <v>2353082.213707145</v>
       </c>
     </row>
   </sheetData>
@@ -12215,28 +12215,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6229.125301723844</v>
+        <v>6663.254555164147</v>
       </c>
       <c r="AB2" t="n">
-        <v>8522.964047432275</v>
+        <v>9116.95884442028</v>
       </c>
       <c r="AC2" t="n">
-        <v>7709.544320800186</v>
+        <v>8246.849088040566</v>
       </c>
       <c r="AD2" t="n">
-        <v>6229125.301723844</v>
+        <v>6663254.555164147</v>
       </c>
       <c r="AE2" t="n">
-        <v>8522964.047432275</v>
+        <v>9116958.84442028</v>
       </c>
       <c r="AF2" t="n">
         <v>2.017020636681976e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>88</v>
+        <v>87.38333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>7709544.320800186</v>
+        <v>8246849.088040566</v>
       </c>
     </row>
     <row r="3">
@@ -12321,28 +12321,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2950.307053454528</v>
+        <v>3230.120345186435</v>
       </c>
       <c r="AB3" t="n">
-        <v>4036.740268897798</v>
+        <v>4419.593159136616</v>
       </c>
       <c r="AC3" t="n">
-        <v>3651.479443234591</v>
+        <v>3997.793390966407</v>
       </c>
       <c r="AD3" t="n">
-        <v>2950307.053454528</v>
+        <v>3230120.345186435</v>
       </c>
       <c r="AE3" t="n">
-        <v>4036740.268897798</v>
+        <v>4419593.159136616</v>
       </c>
       <c r="AF3" t="n">
         <v>3.1532868762222e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>56</v>
+        <v>55.89583333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>3651479.443234591</v>
+        <v>3997793.390966407</v>
       </c>
     </row>
     <row r="4">
@@ -12427,28 +12427,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2408.512302734074</v>
+        <v>2649.688078343338</v>
       </c>
       <c r="AB4" t="n">
-        <v>3295.432788664569</v>
+        <v>3625.420124777474</v>
       </c>
       <c r="AC4" t="n">
-        <v>2980.921308483266</v>
+        <v>3279.415116377678</v>
       </c>
       <c r="AD4" t="n">
-        <v>2408512.302734074</v>
+        <v>2649688.078343338</v>
       </c>
       <c r="AE4" t="n">
-        <v>3295432.788664569</v>
+        <v>3625420.124777474</v>
       </c>
       <c r="AF4" t="n">
         <v>3.561936610919094e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>50</v>
+        <v>49.48333333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>2980921.308483266</v>
+        <v>3279415.116377678</v>
       </c>
     </row>
     <row r="5">
@@ -12533,28 +12533,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2168.742418775575</v>
+        <v>2400.334423759115</v>
       </c>
       <c r="AB5" t="n">
-        <v>2967.369055531631</v>
+        <v>3284.243453868471</v>
       </c>
       <c r="AC5" t="n">
-        <v>2684.167517600318</v>
+        <v>2970.799868095778</v>
       </c>
       <c r="AD5" t="n">
-        <v>2168742.418775575</v>
+        <v>2400334.423759115</v>
       </c>
       <c r="AE5" t="n">
-        <v>2967369.055531631</v>
+        <v>3284243.453868471</v>
       </c>
       <c r="AF5" t="n">
         <v>3.774722135300602e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>47</v>
+        <v>46.69583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>2684167.517600318</v>
+        <v>2970799.868095778</v>
       </c>
     </row>
     <row r="6">
@@ -12639,28 +12639,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2029.326642536156</v>
+        <v>2251.200237278562</v>
       </c>
       <c r="AB6" t="n">
-        <v>2776.614239890898</v>
+        <v>3080.191480589806</v>
       </c>
       <c r="AC6" t="n">
-        <v>2511.618073838271</v>
+        <v>2786.222328758093</v>
       </c>
       <c r="AD6" t="n">
-        <v>2029326.642536156</v>
+        <v>2251200.237278562</v>
       </c>
       <c r="AE6" t="n">
-        <v>2776614.239890898</v>
+        <v>3080191.480589806</v>
       </c>
       <c r="AF6" t="n">
         <v>3.905862319313063e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>46</v>
+        <v>45.12916666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>2511618.073838271</v>
+        <v>2786222.328758093</v>
       </c>
     </row>
     <row r="7">
@@ -12745,28 +12745,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1926.910976752623</v>
+        <v>2139.167646480378</v>
       </c>
       <c r="AB7" t="n">
-        <v>2636.484607705577</v>
+        <v>2926.903547330473</v>
       </c>
       <c r="AC7" t="n">
-        <v>2384.862217075543</v>
+        <v>2647.563980708182</v>
       </c>
       <c r="AD7" t="n">
-        <v>1926910.976752623</v>
+        <v>2139167.646480378</v>
       </c>
       <c r="AE7" t="n">
-        <v>2636484.607705577</v>
+        <v>2926903.547330473</v>
       </c>
       <c r="AF7" t="n">
         <v>3.993853152456908e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>45</v>
+        <v>44.13333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>2384862.217075543</v>
+        <v>2647563.980708181</v>
       </c>
     </row>
     <row r="8">
@@ -12851,28 +12851,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1833.812014309888</v>
+        <v>2046.034518618862</v>
       </c>
       <c r="AB8" t="n">
-        <v>2509.102500055079</v>
+        <v>2799.474693046727</v>
       </c>
       <c r="AC8" t="n">
-        <v>2269.637278997297</v>
+        <v>2532.296757429756</v>
       </c>
       <c r="AD8" t="n">
-        <v>1833812.014309888</v>
+        <v>2046034.518618862</v>
       </c>
       <c r="AE8" t="n">
-        <v>2509102.500055078</v>
+        <v>2799474.693046727</v>
       </c>
       <c r="AF8" t="n">
         <v>4.065768737237935e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>44</v>
+        <v>43.35</v>
       </c>
       <c r="AH8" t="n">
-        <v>2269637.278997297</v>
+        <v>2532296.757429756</v>
       </c>
     </row>
     <row r="9">
@@ -12957,28 +12957,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1787.177090279065</v>
+        <v>1999.399594588039</v>
       </c>
       <c r="AB9" t="n">
-        <v>2445.294539608461</v>
+        <v>2735.666732600109</v>
       </c>
       <c r="AC9" t="n">
-        <v>2211.91906074067</v>
+        <v>2474.578539173128</v>
       </c>
       <c r="AD9" t="n">
-        <v>1787177.090279065</v>
+        <v>1999399.594588039</v>
       </c>
       <c r="AE9" t="n">
-        <v>2445294.53960846</v>
+        <v>2735666.732600109</v>
       </c>
       <c r="AF9" t="n">
         <v>4.091573741188773e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>44</v>
+        <v>43.07916666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>2211919.06074067</v>
+        <v>2474578.539173128</v>
       </c>
     </row>
     <row r="10">
@@ -13063,28 +13063,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1760.846227979688</v>
+        <v>1973.136052096366</v>
       </c>
       <c r="AB10" t="n">
-        <v>2409.267492174793</v>
+        <v>2699.731795097283</v>
       </c>
       <c r="AC10" t="n">
-        <v>2179.330384149793</v>
+        <v>2442.07318167057</v>
       </c>
       <c r="AD10" t="n">
-        <v>1760846.227979688</v>
+        <v>1973136.052096366</v>
       </c>
       <c r="AE10" t="n">
-        <v>2409267.492174793</v>
+        <v>2699731.795097283</v>
       </c>
       <c r="AF10" t="n">
         <v>4.110610219513163e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>43</v>
+        <v>42.87916666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>2179330.384149793</v>
+        <v>2442073.18167057</v>
       </c>
     </row>
     <row r="11">
@@ -13169,28 +13169,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1767.372428078986</v>
+        <v>1979.662252195664</v>
       </c>
       <c r="AB11" t="n">
-        <v>2418.19692706628</v>
+        <v>2708.661229988771</v>
       </c>
       <c r="AC11" t="n">
-        <v>2187.407606307777</v>
+        <v>2450.150403828554</v>
       </c>
       <c r="AD11" t="n">
-        <v>1767372.428078986</v>
+        <v>1979662.252195664</v>
       </c>
       <c r="AE11" t="n">
-        <v>2418196.92706628</v>
+        <v>2708661.229988771</v>
       </c>
       <c r="AF11" t="n">
         <v>4.111033252364816e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>43</v>
+        <v>42.875</v>
       </c>
       <c r="AH11" t="n">
-        <v>2187407.606307777</v>
+        <v>2450150.403828554</v>
       </c>
     </row>
   </sheetData>
@@ -13466,28 +13466,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>10011.85825293186</v>
+        <v>10558.44136098578</v>
       </c>
       <c r="AB2" t="n">
-        <v>13698.66615367522</v>
+        <v>14446.52527565952</v>
       </c>
       <c r="AC2" t="n">
-        <v>12391.28468216664</v>
+        <v>13067.7691791756</v>
       </c>
       <c r="AD2" t="n">
-        <v>10011858.25293186</v>
+        <v>10558441.36098578</v>
       </c>
       <c r="AE2" t="n">
-        <v>13698666.15367522</v>
+        <v>14446525.27565952</v>
       </c>
       <c r="AF2" t="n">
         <v>1.455557190781766e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>111</v>
+        <v>110.0708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>12391284.68216664</v>
+        <v>13067769.17917559</v>
       </c>
     </row>
     <row r="3">
@@ -13572,28 +13572,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3715.442246930754</v>
+        <v>4027.750469931089</v>
       </c>
       <c r="AB3" t="n">
-        <v>5083.63199599443</v>
+        <v>5510.945884769907</v>
       </c>
       <c r="AC3" t="n">
-        <v>4598.457293218848</v>
+        <v>4984.988944188387</v>
       </c>
       <c r="AD3" t="n">
-        <v>3715442.246930754</v>
+        <v>4027750.469931089</v>
       </c>
       <c r="AE3" t="n">
-        <v>5083631.99599443</v>
+        <v>5510945.884769907</v>
       </c>
       <c r="AF3" t="n">
         <v>2.628463249403797e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>61</v>
+        <v>60.9625</v>
       </c>
       <c r="AH3" t="n">
-        <v>4598457.293218848</v>
+        <v>4984988.944188387</v>
       </c>
     </row>
     <row r="4">
@@ -13678,28 +13678,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2917.630856947379</v>
+        <v>3181.091750674936</v>
       </c>
       <c r="AB4" t="n">
-        <v>3992.031255264666</v>
+        <v>4352.510073137045</v>
       </c>
       <c r="AC4" t="n">
-        <v>3611.037395113111</v>
+        <v>3937.112620542936</v>
       </c>
       <c r="AD4" t="n">
-        <v>2917630.856947379</v>
+        <v>3181091.750674936</v>
       </c>
       <c r="AE4" t="n">
-        <v>3992031.255264666</v>
+        <v>4352510.073137045</v>
       </c>
       <c r="AF4" t="n">
         <v>3.055708702233002e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>53</v>
+        <v>52.4375</v>
       </c>
       <c r="AH4" t="n">
-        <v>3611037.395113111</v>
+        <v>3937112.620542936</v>
       </c>
     </row>
     <row r="5">
@@ -13784,28 +13784,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2586.74056216912</v>
+        <v>2830.777271169621</v>
       </c>
       <c r="AB5" t="n">
-        <v>3539.292556099485</v>
+        <v>3873.194347493753</v>
       </c>
       <c r="AC5" t="n">
-        <v>3201.507441973518</v>
+        <v>3503.542115031211</v>
       </c>
       <c r="AD5" t="n">
-        <v>2586740.562169121</v>
+        <v>2830777.271169621</v>
       </c>
       <c r="AE5" t="n">
-        <v>3539292.556099485</v>
+        <v>3873194.347493753</v>
       </c>
       <c r="AF5" t="n">
         <v>3.28336784541472e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>49</v>
+        <v>48.8</v>
       </c>
       <c r="AH5" t="n">
-        <v>3201507.441973518</v>
+        <v>3503542.115031211</v>
       </c>
     </row>
     <row r="6">
@@ -13890,28 +13890,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2404.53808808657</v>
+        <v>2638.811962110298</v>
       </c>
       <c r="AB6" t="n">
-        <v>3289.995092853878</v>
+        <v>3610.538942727044</v>
       </c>
       <c r="AC6" t="n">
-        <v>2976.002578728893</v>
+        <v>3265.954173456271</v>
       </c>
       <c r="AD6" t="n">
-        <v>2404538.08808657</v>
+        <v>2638811.962110298</v>
       </c>
       <c r="AE6" t="n">
-        <v>3289995.092853878</v>
+        <v>3610538.942727044</v>
       </c>
       <c r="AF6" t="n">
         <v>3.422578334995434e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>47</v>
+        <v>46.81666666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>2976002.578728893</v>
+        <v>3265954.173456271</v>
       </c>
     </row>
     <row r="7">
@@ -13996,28 +13996,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2282.19428320253</v>
+        <v>2506.739487668268</v>
       </c>
       <c r="AB7" t="n">
-        <v>3122.598901583785</v>
+        <v>3429.831556569098</v>
       </c>
       <c r="AC7" t="n">
-        <v>2824.582445011593</v>
+        <v>3102.493246608837</v>
       </c>
       <c r="AD7" t="n">
-        <v>2282194.28320253</v>
+        <v>2506739.487668268</v>
       </c>
       <c r="AE7" t="n">
-        <v>3122598.901583785</v>
+        <v>3429831.556569098</v>
       </c>
       <c r="AF7" t="n">
         <v>3.520256413320022e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>46</v>
+        <v>45.51666666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>2824582.445011593</v>
+        <v>3102493.246608837</v>
       </c>
     </row>
     <row r="8">
@@ -14102,28 +14102,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2189.779850455949</v>
+        <v>2414.290889502908</v>
       </c>
       <c r="AB8" t="n">
-        <v>2996.153397662702</v>
+        <v>3303.339306014943</v>
       </c>
       <c r="AC8" t="n">
-        <v>2710.204722517477</v>
+        <v>2988.073238914586</v>
       </c>
       <c r="AD8" t="n">
-        <v>2189779.850455949</v>
+        <v>2414290.889502908</v>
       </c>
       <c r="AE8" t="n">
-        <v>2996153.397662702</v>
+        <v>3303339.306014943</v>
       </c>
       <c r="AF8" t="n">
         <v>3.588707980019931e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>45</v>
+        <v>44.65</v>
       </c>
       <c r="AH8" t="n">
-        <v>2710204.722517477</v>
+        <v>2988073.238914587</v>
       </c>
     </row>
     <row r="9">
@@ -14208,28 +14208,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2112.066956783167</v>
+        <v>2336.543830411346</v>
       </c>
       <c r="AB9" t="n">
-        <v>2889.823188088701</v>
+        <v>3196.962349807689</v>
       </c>
       <c r="AC9" t="n">
-        <v>2614.022518909834</v>
+        <v>2891.848750106761</v>
       </c>
       <c r="AD9" t="n">
-        <v>2112066.956783167</v>
+        <v>2336543.830411346</v>
       </c>
       <c r="AE9" t="n">
-        <v>2889823.188088701</v>
+        <v>3196962.349807689</v>
       </c>
       <c r="AF9" t="n">
         <v>3.64408452836143e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>44</v>
+        <v>43.97083333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>2614022.518909834</v>
+        <v>2891848.750106761</v>
       </c>
     </row>
     <row r="10">
@@ -14314,28 +14314,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2040.395700964766</v>
+        <v>2255.07658522725</v>
       </c>
       <c r="AB10" t="n">
-        <v>2791.759413965316</v>
+        <v>3085.495270865603</v>
       </c>
       <c r="AC10" t="n">
-        <v>2525.317813755412</v>
+        <v>2791.019932733884</v>
       </c>
       <c r="AD10" t="n">
-        <v>2040395.700964766</v>
+        <v>2255076.58522725</v>
       </c>
       <c r="AE10" t="n">
-        <v>2791759.413965316</v>
+        <v>3085495.270865603</v>
       </c>
       <c r="AF10" t="n">
         <v>3.699845636066412e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>44</v>
+        <v>43.30833333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>2525317.813755412</v>
+        <v>2791019.932733884</v>
       </c>
     </row>
     <row r="11">
@@ -14420,28 +14420,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2007.563925954787</v>
+        <v>2222.244810217271</v>
       </c>
       <c r="AB11" t="n">
-        <v>2746.837530960973</v>
+        <v>3040.573387861258</v>
       </c>
       <c r="AC11" t="n">
-        <v>2484.683212216746</v>
+        <v>2750.385331195217</v>
       </c>
       <c r="AD11" t="n">
-        <v>2007563.925954787</v>
+        <v>2222244.810217271</v>
       </c>
       <c r="AE11" t="n">
-        <v>2746837.530960973</v>
+        <v>3040573.387861258</v>
       </c>
       <c r="AF11" t="n">
         <v>3.712920654424822e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>44</v>
+        <v>43.15416666666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>2484683.212216746</v>
+        <v>2750385.331195217</v>
       </c>
     </row>
     <row r="12">
@@ -14526,28 +14526,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1942.947834867062</v>
+        <v>2157.696038937247</v>
       </c>
       <c r="AB12" t="n">
-        <v>2658.426944473998</v>
+        <v>2952.254911304947</v>
       </c>
       <c r="AC12" t="n">
-        <v>2404.71040801905</v>
+        <v>2670.495846085794</v>
       </c>
       <c r="AD12" t="n">
-        <v>1942947.834867062</v>
+        <v>2157696.038937247</v>
       </c>
       <c r="AE12" t="n">
-        <v>2658426.944473999</v>
+        <v>2952254.911304947</v>
       </c>
       <c r="AF12" t="n">
         <v>3.742147166049501e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>43</v>
+        <v>42.81666666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>2404710.40801905</v>
+        <v>2670495.846085794</v>
       </c>
     </row>
     <row r="13">
@@ -14632,28 +14632,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1914.141848467732</v>
+        <v>2128.890052537917</v>
       </c>
       <c r="AB13" t="n">
-        <v>2619.013323052006</v>
+        <v>2912.841289882955</v>
       </c>
       <c r="AC13" t="n">
-        <v>2369.058367308208</v>
+        <v>2634.843805374951</v>
       </c>
       <c r="AD13" t="n">
-        <v>1914141.848467732</v>
+        <v>2128890.052537917</v>
       </c>
       <c r="AE13" t="n">
-        <v>2619013.323052006</v>
+        <v>2912841.289882955</v>
       </c>
       <c r="AF13" t="n">
         <v>3.76099057486015e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>43</v>
+        <v>42.60416666666666</v>
       </c>
       <c r="AH13" t="n">
-        <v>2369058.367308208</v>
+        <v>2634843.805374952</v>
       </c>
     </row>
     <row r="14">
@@ -14738,28 +14738,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1917.79289540595</v>
+        <v>2132.541099476136</v>
       </c>
       <c r="AB14" t="n">
-        <v>2624.0088465457</v>
+        <v>2917.836813376648</v>
       </c>
       <c r="AC14" t="n">
-        <v>2373.577125050924</v>
+        <v>2639.362563117668</v>
       </c>
       <c r="AD14" t="n">
-        <v>1917792.89540595</v>
+        <v>2132541.099476135</v>
       </c>
       <c r="AE14" t="n">
-        <v>2624008.8465457</v>
+        <v>2917836.813376648</v>
       </c>
       <c r="AF14" t="n">
         <v>3.75945233740622e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>43</v>
+        <v>42.62083333333334</v>
       </c>
       <c r="AH14" t="n">
-        <v>2373577.125050924</v>
+        <v>2639362.563117668</v>
       </c>
     </row>
     <row r="15">
@@ -14844,28 +14844,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1924.222547846623</v>
+        <v>2138.970751916808</v>
       </c>
       <c r="AB15" t="n">
-        <v>2632.806180671276</v>
+        <v>2926.634147502223</v>
       </c>
       <c r="AC15" t="n">
-        <v>2381.53485395469</v>
+        <v>2647.320292021434</v>
       </c>
       <c r="AD15" t="n">
-        <v>1924222.547846623</v>
+        <v>2138970.751916808</v>
       </c>
       <c r="AE15" t="n">
-        <v>2632806.180671276</v>
+        <v>2926634.147502223</v>
       </c>
       <c r="AF15" t="n">
         <v>3.759067778042738e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>43</v>
+        <v>42.625</v>
       </c>
       <c r="AH15" t="n">
-        <v>2381534.853954691</v>
+        <v>2647320.292021434</v>
       </c>
     </row>
   </sheetData>
@@ -15141,28 +15141,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3968.508294627007</v>
+        <v>4311.11752101194</v>
       </c>
       <c r="AB2" t="n">
-        <v>5429.888126938539</v>
+        <v>5898.661185330747</v>
       </c>
       <c r="AC2" t="n">
-        <v>4911.66722499917</v>
+        <v>5335.701240625528</v>
       </c>
       <c r="AD2" t="n">
-        <v>3968508.294627007</v>
+        <v>4311117.52101194</v>
       </c>
       <c r="AE2" t="n">
-        <v>5429888.12693854</v>
+        <v>5898661.185330747</v>
       </c>
       <c r="AF2" t="n">
         <v>2.802631517776131e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>72</v>
+        <v>71.27083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>4911667.22499917</v>
+        <v>5335701.240625528</v>
       </c>
     </row>
     <row r="3">
@@ -15247,28 +15247,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2281.581003442525</v>
+        <v>2528.992809935398</v>
       </c>
       <c r="AB3" t="n">
-        <v>3121.759785160151</v>
+        <v>3460.279533842277</v>
       </c>
       <c r="AC3" t="n">
-        <v>2823.823412681725</v>
+        <v>3130.035311665067</v>
       </c>
       <c r="AD3" t="n">
-        <v>2281581.003442525</v>
+        <v>2528992.809935398</v>
       </c>
       <c r="AE3" t="n">
-        <v>3121759.785160151</v>
+        <v>3460279.533842277</v>
       </c>
       <c r="AF3" t="n">
         <v>3.889454242852847e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>52</v>
+        <v>51.35833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>2823823.412681725</v>
+        <v>3130035.311665067</v>
       </c>
     </row>
     <row r="4">
@@ -15353,28 +15353,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1919.546659266523</v>
+        <v>2147.986301588688</v>
       </c>
       <c r="AB4" t="n">
-        <v>2626.408423630336</v>
+        <v>2938.969620301268</v>
       </c>
       <c r="AC4" t="n">
-        <v>2375.74768986643</v>
+        <v>2658.478484609484</v>
       </c>
       <c r="AD4" t="n">
-        <v>1919546.659266523</v>
+        <v>2147986.301588688</v>
       </c>
       <c r="AE4" t="n">
-        <v>2626408.423630336</v>
+        <v>2938969.620301268</v>
       </c>
       <c r="AF4" t="n">
         <v>4.272982332866687e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>47</v>
+        <v>46.75</v>
       </c>
       <c r="AH4" t="n">
-        <v>2375747.68986643</v>
+        <v>2658478.484609484</v>
       </c>
     </row>
     <row r="5">
@@ -15459,28 +15459,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1741.735641032727</v>
+        <v>1960.655541365686</v>
       </c>
       <c r="AB5" t="n">
-        <v>2383.119544014368</v>
+        <v>2682.655409714292</v>
       </c>
       <c r="AC5" t="n">
-        <v>2155.677959462923</v>
+        <v>2426.626542541675</v>
       </c>
       <c r="AD5" t="n">
-        <v>1741735.641032727</v>
+        <v>1960655.541365686</v>
       </c>
       <c r="AE5" t="n">
-        <v>2383119.544014368</v>
+        <v>2682655.409714292</v>
       </c>
       <c r="AF5" t="n">
         <v>4.470019889111297e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>45</v>
+        <v>44.6875</v>
       </c>
       <c r="AH5" t="n">
-        <v>2155677.959462923</v>
+        <v>2426626.542541675</v>
       </c>
     </row>
     <row r="6">
@@ -15565,28 +15565,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1623.274905046341</v>
+        <v>1832.709228808874</v>
       </c>
       <c r="AB6" t="n">
-        <v>2221.036338918964</v>
+        <v>2507.593620281128</v>
       </c>
       <c r="AC6" t="n">
-        <v>2009.063747976617</v>
+        <v>2268.272404591247</v>
       </c>
       <c r="AD6" t="n">
-        <v>1623274.905046341</v>
+        <v>1832709.228808874</v>
       </c>
       <c r="AE6" t="n">
-        <v>2221036.338918964</v>
+        <v>2507593.620281128</v>
       </c>
       <c r="AF6" t="n">
         <v>4.590831237465656e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>44</v>
+        <v>43.51250000000001</v>
       </c>
       <c r="AH6" t="n">
-        <v>2009063.747976617</v>
+        <v>2268272.404591247</v>
       </c>
     </row>
     <row r="7">
@@ -15671,28 +15671,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1614.596175492611</v>
+        <v>1823.929014028659</v>
       </c>
       <c r="AB7" t="n">
-        <v>2209.161718265024</v>
+        <v>2495.5801430631</v>
       </c>
       <c r="AC7" t="n">
-        <v>1998.322424451755</v>
+        <v>2257.405476777886</v>
       </c>
       <c r="AD7" t="n">
-        <v>1614596.175492611</v>
+        <v>1823929.014028659</v>
       </c>
       <c r="AE7" t="n">
-        <v>2209161.718265024</v>
+        <v>2495580.143063101</v>
       </c>
       <c r="AF7" t="n">
         <v>4.600898849828519e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>44</v>
+        <v>43.4125</v>
       </c>
       <c r="AH7" t="n">
-        <v>1998322.424451755</v>
+        <v>2257405.476777886</v>
       </c>
     </row>
     <row r="8">
@@ -15777,28 +15777,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1621.786206356236</v>
+        <v>1831.119044892284</v>
       </c>
       <c r="AB8" t="n">
-        <v>2218.99943569441</v>
+        <v>2505.417860492486</v>
       </c>
       <c r="AC8" t="n">
-        <v>2007.221243937004</v>
+        <v>2266.304296263135</v>
       </c>
       <c r="AD8" t="n">
-        <v>1621786.206356236</v>
+        <v>1831119.044892284</v>
       </c>
       <c r="AE8" t="n">
-        <v>2218999.43569441</v>
+        <v>2505417.860492486</v>
       </c>
       <c r="AF8" t="n">
         <v>4.600898849828519e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>44</v>
+        <v>43.41666666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>2007221.243937004</v>
+        <v>2266304.296263135</v>
       </c>
     </row>
   </sheetData>
@@ -16074,28 +16074,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2772.713728932011</v>
+        <v>3073.475265891148</v>
       </c>
       <c r="AB2" t="n">
-        <v>3793.749247421555</v>
+        <v>4205.264450951625</v>
       </c>
       <c r="AC2" t="n">
-        <v>3431.679143808009</v>
+        <v>3803.919913878369</v>
       </c>
       <c r="AD2" t="n">
-        <v>2772713.728932011</v>
+        <v>3073475.265891147</v>
       </c>
       <c r="AE2" t="n">
-        <v>3793749.247421555</v>
+        <v>4205264.450951625</v>
       </c>
       <c r="AF2" t="n">
         <v>3.683937574280611e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>62</v>
+        <v>61.65833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3431679.143808009</v>
+        <v>3803919.913878369</v>
       </c>
     </row>
     <row r="3">
@@ -16180,28 +16180,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1802.227811788647</v>
+        <v>2027.782892828466</v>
       </c>
       <c r="AB3" t="n">
-        <v>2465.887600768842</v>
+        <v>2774.502013435406</v>
       </c>
       <c r="AC3" t="n">
-        <v>2230.546749046447</v>
+        <v>2509.707435311163</v>
       </c>
       <c r="AD3" t="n">
-        <v>1802227.811788647</v>
+        <v>2027782.892828466</v>
       </c>
       <c r="AE3" t="n">
-        <v>2465887.600768842</v>
+        <v>2774502.013435406</v>
       </c>
       <c r="AF3" t="n">
         <v>4.71912512289838e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>49</v>
+        <v>48.13333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2230546.749046447</v>
+        <v>2509707.435311163</v>
       </c>
     </row>
     <row r="4">
@@ -16286,28 +16286,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1532.974920806939</v>
+        <v>1749.162222867034</v>
       </c>
       <c r="AB4" t="n">
-        <v>2097.483916728468</v>
+        <v>2393.280920917734</v>
       </c>
       <c r="AC4" t="n">
-        <v>1897.302995553069</v>
+        <v>2164.869548816214</v>
       </c>
       <c r="AD4" t="n">
-        <v>1532974.920806939</v>
+        <v>1749162.222867034</v>
       </c>
       <c r="AE4" t="n">
-        <v>2097483.916728468</v>
+        <v>2393280.920917735</v>
       </c>
       <c r="AF4" t="n">
         <v>5.083266925150444e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>45</v>
+        <v>44.68333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1897302.995553069</v>
+        <v>2164869.548816214</v>
       </c>
     </row>
     <row r="5">
@@ -16392,28 +16392,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1497.54729608772</v>
+        <v>1713.633112921331</v>
       </c>
       <c r="AB5" t="n">
-        <v>2049.010277631139</v>
+        <v>2344.668425256315</v>
       </c>
       <c r="AC5" t="n">
-        <v>1853.455612538009</v>
+        <v>2120.896561512655</v>
       </c>
       <c r="AD5" t="n">
-        <v>1497547.29608772</v>
+        <v>1713633.112921331</v>
       </c>
       <c r="AE5" t="n">
-        <v>2049010.277631139</v>
+        <v>2344668.425256316</v>
       </c>
       <c r="AF5" t="n">
         <v>5.136143803621178e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>45</v>
+        <v>44.22083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1853455.612538009</v>
+        <v>2120896.561512655</v>
       </c>
     </row>
     <row r="6">
@@ -16498,28 +16498,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1502.991919469736</v>
+        <v>1709.745133772261</v>
       </c>
       <c r="AB6" t="n">
-        <v>2056.459851542244</v>
+        <v>2339.348720659024</v>
       </c>
       <c r="AC6" t="n">
-        <v>1860.194209570581</v>
+        <v>2116.084562055877</v>
       </c>
       <c r="AD6" t="n">
-        <v>1502991.919469736</v>
+        <v>1709745.133772261</v>
       </c>
       <c r="AE6" t="n">
-        <v>2056459.851542244</v>
+        <v>2339348.720659024</v>
       </c>
       <c r="AF6" t="n">
         <v>5.141049905747328e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>45</v>
+        <v>44.18333333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1860194.209570581</v>
+        <v>2116084.562055877</v>
       </c>
     </row>
   </sheetData>
@@ -30272,28 +30272,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2106.556081930525</v>
+        <v>2376.360806204883</v>
       </c>
       <c r="AB2" t="n">
-        <v>2882.282965992677</v>
+        <v>3251.441692689407</v>
       </c>
       <c r="AC2" t="n">
-        <v>2607.201925027885</v>
+        <v>2941.128660966084</v>
       </c>
       <c r="AD2" t="n">
-        <v>2106556.081930525</v>
+        <v>2376360.806204883</v>
       </c>
       <c r="AE2" t="n">
-        <v>2882282.965992677</v>
+        <v>3251441.692689407</v>
       </c>
       <c r="AF2" t="n">
         <v>4.566368668937977e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>56</v>
+        <v>55.86249999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>2607201.925027885</v>
+        <v>2941128.660966084</v>
       </c>
     </row>
     <row r="3">
@@ -30378,28 +30378,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1455.390224146436</v>
+        <v>1678.66511133253</v>
       </c>
       <c r="AB3" t="n">
-        <v>1991.329111962321</v>
+        <v>2296.823662803165</v>
       </c>
       <c r="AC3" t="n">
-        <v>1801.279456364598</v>
+        <v>2077.618036037487</v>
       </c>
       <c r="AD3" t="n">
-        <v>1455390.224146436</v>
+        <v>1678665.11133253</v>
       </c>
       <c r="AE3" t="n">
-        <v>1991329.111962321</v>
+        <v>2296823.662803165</v>
       </c>
       <c r="AF3" t="n">
         <v>5.557513711840589e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>46</v>
+        <v>45.9</v>
       </c>
       <c r="AH3" t="n">
-        <v>1801279.456364598</v>
+        <v>2077618.036037487</v>
       </c>
     </row>
     <row r="4">
@@ -30484,28 +30484,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1418.114535817047</v>
+        <v>1632.050301196565</v>
       </c>
       <c r="AB4" t="n">
-        <v>1940.326870702743</v>
+        <v>2233.043223074855</v>
       </c>
       <c r="AC4" t="n">
-        <v>1755.14479742874</v>
+        <v>2019.924711960437</v>
       </c>
       <c r="AD4" t="n">
-        <v>1418114.535817047</v>
+        <v>1632050.301196565</v>
       </c>
       <c r="AE4" t="n">
-        <v>1940326.870702744</v>
+        <v>2233043.223074855</v>
       </c>
       <c r="AF4" t="n">
         <v>5.640160148401338e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>46</v>
+        <v>45.225</v>
       </c>
       <c r="AH4" t="n">
-        <v>1755144.79742874</v>
+        <v>2019924.711960437</v>
       </c>
     </row>
   </sheetData>
@@ -30781,28 +30781,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1293.887027111251</v>
+        <v>1521.728428189489</v>
       </c>
       <c r="AB2" t="n">
-        <v>1770.353312760586</v>
+        <v>2082.095969369037</v>
       </c>
       <c r="AC2" t="n">
-        <v>1601.393277297195</v>
+        <v>1883.383652292502</v>
       </c>
       <c r="AD2" t="n">
-        <v>1293887.027111251</v>
+        <v>1521728.428189489</v>
       </c>
       <c r="AE2" t="n">
-        <v>1770353.312760586</v>
+        <v>2082095.969369037</v>
       </c>
       <c r="AF2" t="n">
         <v>6.816740231355324e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>50</v>
+        <v>49.49166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1601393.277297195</v>
+        <v>1883383.652292502</v>
       </c>
     </row>
     <row r="3">
@@ -30887,28 +30887,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1304.334049238473</v>
+        <v>1532.175450316712</v>
       </c>
       <c r="AB3" t="n">
-        <v>1784.64738932514</v>
+        <v>2096.390045933591</v>
       </c>
       <c r="AC3" t="n">
-        <v>1614.32314725629</v>
+        <v>1896.313522251598</v>
       </c>
       <c r="AD3" t="n">
-        <v>1304334.049238473</v>
+        <v>1532175.450316712</v>
       </c>
       <c r="AE3" t="n">
-        <v>1784647.38932514</v>
+        <v>2096390.045933591</v>
       </c>
       <c r="AF3" t="n">
         <v>6.820788657671606e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>50</v>
+        <v>49.4625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1614323.14725629</v>
+        <v>1896313.522251598</v>
       </c>
     </row>
   </sheetData>
@@ -31184,28 +31184,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5560.02137872783</v>
+        <v>5973.597595736826</v>
       </c>
       <c r="AB2" t="n">
-        <v>7607.466541207323</v>
+        <v>8173.339767014043</v>
       </c>
       <c r="AC2" t="n">
-        <v>6881.420611660557</v>
+        <v>7393.287691004325</v>
       </c>
       <c r="AD2" t="n">
-        <v>5560021.37872783</v>
+        <v>5973597.595736827</v>
       </c>
       <c r="AE2" t="n">
-        <v>7607466.541207323</v>
+        <v>8173339.767014043</v>
       </c>
       <c r="AF2" t="n">
         <v>2.186164234246759e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>83</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>6881420.611660558</v>
+        <v>7393287.691004325</v>
       </c>
     </row>
     <row r="3">
@@ -31290,28 +31290,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2774.600336979031</v>
+        <v>3043.938356942333</v>
       </c>
       <c r="AB3" t="n">
-        <v>3796.330587782762</v>
+        <v>4164.850749051398</v>
       </c>
       <c r="AC3" t="n">
-        <v>3434.014124668076</v>
+        <v>3767.363238966514</v>
       </c>
       <c r="AD3" t="n">
-        <v>2774600.336979032</v>
+        <v>3043938.356942332</v>
       </c>
       <c r="AE3" t="n">
-        <v>3796330.587782762</v>
+        <v>4164850.749051397</v>
       </c>
       <c r="AF3" t="n">
         <v>3.313609060185398e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>55</v>
+        <v>54.69583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>3434014.124668076</v>
+        <v>3767363.238966514</v>
       </c>
     </row>
     <row r="4">
@@ -31396,28 +31396,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2283.971313297536</v>
+        <v>2524.448027684185</v>
       </c>
       <c r="AB4" t="n">
-        <v>3125.030312556807</v>
+        <v>3454.061162264527</v>
       </c>
       <c r="AC4" t="n">
-        <v>2826.781805533858</v>
+        <v>3124.410412743158</v>
       </c>
       <c r="AD4" t="n">
-        <v>2283971.313297536</v>
+        <v>2524448.027684186</v>
       </c>
       <c r="AE4" t="n">
-        <v>3125030.312556807</v>
+        <v>3454061.162264526</v>
       </c>
       <c r="AF4" t="n">
         <v>3.715087291026973e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>49</v>
+        <v>48.78333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2826781.805533858</v>
+        <v>3124410.412743158</v>
       </c>
     </row>
     <row r="5">
@@ -31502,28 +31502,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2069.464501801696</v>
+        <v>2290.66719141499</v>
       </c>
       <c r="AB5" t="n">
-        <v>2831.532629695387</v>
+        <v>3134.1919083984</v>
       </c>
       <c r="AC5" t="n">
-        <v>2561.295129598263</v>
+        <v>2835.06903152671</v>
       </c>
       <c r="AD5" t="n">
-        <v>2069464.501801696</v>
+        <v>2290667.19141499</v>
       </c>
       <c r="AE5" t="n">
-        <v>2831532.629695387</v>
+        <v>3134191.908398401</v>
       </c>
       <c r="AF5" t="n">
         <v>3.923003427909176e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>47</v>
+        <v>46.19583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>2561295.129598264</v>
+        <v>2835069.03152671</v>
       </c>
     </row>
     <row r="6">
@@ -31608,28 +31608,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1926.50474920091</v>
+        <v>2147.740593203125</v>
       </c>
       <c r="AB6" t="n">
-        <v>2635.928789247829</v>
+        <v>2938.633431248253</v>
       </c>
       <c r="AC6" t="n">
-        <v>2384.359445151307</v>
+        <v>2658.174380967844</v>
       </c>
       <c r="AD6" t="n">
-        <v>1926504.74920091</v>
+        <v>2147740.593203125</v>
       </c>
       <c r="AE6" t="n">
-        <v>2635928.789247829</v>
+        <v>2938633.431248253</v>
       </c>
       <c r="AF6" t="n">
         <v>4.052624785212306e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>45</v>
+        <v>44.72083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>2384359.445151307</v>
+        <v>2658174.380967844</v>
       </c>
     </row>
     <row r="7">
@@ -31714,28 +31714,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1824.945423181616</v>
+        <v>2046.14710176505</v>
       </c>
       <c r="AB7" t="n">
-        <v>2496.970838906983</v>
+        <v>2799.628734274159</v>
       </c>
       <c r="AC7" t="n">
-        <v>2258.663446562283</v>
+        <v>2532.43609717864</v>
       </c>
       <c r="AD7" t="n">
-        <v>1824945.423181616</v>
+        <v>2046147.10176505</v>
       </c>
       <c r="AE7" t="n">
-        <v>2496970.838906983</v>
+        <v>2799628.734274159</v>
       </c>
       <c r="AF7" t="n">
         <v>4.141793839732917e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>44</v>
+        <v>43.75833333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>2258663.446562283</v>
+        <v>2532436.09717864</v>
       </c>
     </row>
     <row r="8">
@@ -31820,28 +31820,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1745.351625097724</v>
+        <v>1956.899714100017</v>
       </c>
       <c r="AB8" t="n">
-        <v>2388.067092938054</v>
+        <v>2677.516521153999</v>
       </c>
       <c r="AC8" t="n">
-        <v>2160.153321261262</v>
+        <v>2421.9781022931</v>
       </c>
       <c r="AD8" t="n">
-        <v>1745351.625097724</v>
+        <v>1956899.714100017</v>
       </c>
       <c r="AE8" t="n">
-        <v>2388067.092938054</v>
+        <v>2677516.521153999</v>
       </c>
       <c r="AF8" t="n">
         <v>4.210084286365773e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>44</v>
+        <v>43.04583333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>2160153.321261262</v>
+        <v>2421978.1022931</v>
       </c>
     </row>
     <row r="9">
@@ -31926,28 +31926,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1737.205052271597</v>
+        <v>1948.75314127389</v>
       </c>
       <c r="AB9" t="n">
-        <v>2376.92059259592</v>
+        <v>2666.370020811865</v>
       </c>
       <c r="AC9" t="n">
-        <v>2150.070627267569</v>
+        <v>2411.895408299408</v>
       </c>
       <c r="AD9" t="n">
-        <v>1737205.052271597</v>
+        <v>1948753.14127389</v>
       </c>
       <c r="AE9" t="n">
-        <v>2376920.59259592</v>
+        <v>2666370.020811865</v>
       </c>
       <c r="AF9" t="n">
         <v>4.206604518384481e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>44</v>
+        <v>43.08333333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>2150070.627267569</v>
+        <v>2411895.408299408</v>
       </c>
     </row>
     <row r="10">
@@ -32032,28 +32032,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1743.055489455193</v>
+        <v>1954.603578457486</v>
       </c>
       <c r="AB10" t="n">
-        <v>2384.925418853588</v>
+        <v>2674.374847069533</v>
       </c>
       <c r="AC10" t="n">
-        <v>2157.31148414205</v>
+        <v>2419.136265173889</v>
       </c>
       <c r="AD10" t="n">
-        <v>1743055.489455193</v>
+        <v>1954603.578457486</v>
       </c>
       <c r="AE10" t="n">
-        <v>2384925.418853588</v>
+        <v>2674374.847069533</v>
       </c>
       <c r="AF10" t="n">
         <v>4.207474460379805e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>44</v>
+        <v>43.075</v>
       </c>
       <c r="AH10" t="n">
-        <v>2157311.48414205</v>
+        <v>2419136.265173889</v>
       </c>
     </row>
   </sheetData>
@@ -32329,28 +32329,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>8849.592940735982</v>
+        <v>9365.550035925295</v>
       </c>
       <c r="AB2" t="n">
-        <v>12108.403478002</v>
+        <v>12814.3587380606</v>
       </c>
       <c r="AC2" t="n">
-        <v>10952.79444431204</v>
+        <v>11591.37432516506</v>
       </c>
       <c r="AD2" t="n">
-        <v>8849592.940735981</v>
+        <v>9365550.035925295</v>
       </c>
       <c r="AE2" t="n">
-        <v>12108403.478002</v>
+        <v>12814358.7380606</v>
       </c>
       <c r="AF2" t="n">
         <v>1.581193228403763e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>104</v>
+        <v>103.5666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>10952794.44431204</v>
+        <v>11591374.32516506</v>
       </c>
     </row>
     <row r="3">
@@ -32435,28 +32435,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3514.087780787559</v>
+        <v>3815.845642531755</v>
       </c>
       <c r="AB3" t="n">
-        <v>4808.12993228519</v>
+        <v>5221.008351340925</v>
       </c>
       <c r="AC3" t="n">
-        <v>4349.248759800453</v>
+        <v>4722.722642019995</v>
       </c>
       <c r="AD3" t="n">
-        <v>3514087.780787559</v>
+        <v>3815845.642531755</v>
       </c>
       <c r="AE3" t="n">
-        <v>4808129.93228519</v>
+        <v>5221008.351340925</v>
       </c>
       <c r="AF3" t="n">
         <v>2.746944934952499e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>60</v>
+        <v>59.61249999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>4349248.759800453</v>
+        <v>4722722.642019995</v>
       </c>
     </row>
     <row r="4">
@@ -32541,28 +32541,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2782.686250757429</v>
+        <v>3045.498797329786</v>
       </c>
       <c r="AB4" t="n">
-        <v>3807.394091739706</v>
+        <v>4166.985812431283</v>
       </c>
       <c r="AC4" t="n">
-        <v>3444.021743335095</v>
+        <v>3769.294534894003</v>
       </c>
       <c r="AD4" t="n">
-        <v>2782686.250757429</v>
+        <v>3045498.797329786</v>
       </c>
       <c r="AE4" t="n">
-        <v>3807394.091739706</v>
+        <v>4166985.812431283</v>
       </c>
       <c r="AF4" t="n">
         <v>3.170640261877494e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>52</v>
+        <v>51.65</v>
       </c>
       <c r="AH4" t="n">
-        <v>3444021.743335095</v>
+        <v>3769294.534894003</v>
       </c>
     </row>
     <row r="5">
@@ -32647,28 +32647,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2487.237601133597</v>
+        <v>2730.510170312329</v>
       </c>
       <c r="AB5" t="n">
-        <v>3403.148215049847</v>
+        <v>3736.004476628504</v>
       </c>
       <c r="AC5" t="n">
-        <v>3078.35652575388</v>
+        <v>3379.445452894154</v>
       </c>
       <c r="AD5" t="n">
-        <v>2487237.601133597</v>
+        <v>2730510.170312329</v>
       </c>
       <c r="AE5" t="n">
-        <v>3403148.215049847</v>
+        <v>3736004.476628504</v>
       </c>
       <c r="AF5" t="n">
         <v>3.391920845419955e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>49</v>
+        <v>48.28333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>3078356.52575388</v>
+        <v>3379445.452894154</v>
       </c>
     </row>
     <row r="6">
@@ -32753,28 +32753,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2313.47137407437</v>
+        <v>2547.007614460143</v>
       </c>
       <c r="AB6" t="n">
-        <v>3165.393597162502</v>
+        <v>3484.928184150119</v>
       </c>
       <c r="AC6" t="n">
-        <v>2863.29287490701</v>
+        <v>3152.331529382126</v>
       </c>
       <c r="AD6" t="n">
-        <v>2313471.37407437</v>
+        <v>2547007.614460143</v>
       </c>
       <c r="AE6" t="n">
-        <v>3165393.597162502</v>
+        <v>3484928.184150119</v>
       </c>
       <c r="AF6" t="n">
         <v>3.530663378262741e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>47</v>
+        <v>46.3875</v>
       </c>
       <c r="AH6" t="n">
-        <v>2863292.87490701</v>
+        <v>3152331.529382126</v>
       </c>
     </row>
     <row r="7">
@@ -32859,28 +32859,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2199.598943304895</v>
+        <v>2423.433020316489</v>
       </c>
       <c r="AB7" t="n">
-        <v>3009.588313686608</v>
+        <v>3315.847972716433</v>
       </c>
       <c r="AC7" t="n">
-        <v>2722.357429011972</v>
+        <v>2999.388096022109</v>
       </c>
       <c r="AD7" t="n">
-        <v>2199598.943304895</v>
+        <v>2423433.020316489</v>
       </c>
       <c r="AE7" t="n">
-        <v>3009588.313686608</v>
+        <v>3315847.972716433</v>
       </c>
       <c r="AF7" t="n">
         <v>3.623420425715709e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>46</v>
+        <v>45.19583333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>2722357.429011972</v>
+        <v>2999388.09602211</v>
       </c>
     </row>
     <row r="8">
@@ -32965,28 +32965,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2108.106477005208</v>
+        <v>2331.906388598022</v>
       </c>
       <c r="AB8" t="n">
-        <v>2884.404284932461</v>
+        <v>3190.617197329206</v>
       </c>
       <c r="AC8" t="n">
-        <v>2609.120788265346</v>
+        <v>2886.109170075348</v>
       </c>
       <c r="AD8" t="n">
-        <v>2108106.477005207</v>
+        <v>2331906.388598022</v>
       </c>
       <c r="AE8" t="n">
-        <v>2884404.284932461</v>
+        <v>3190617.197329206</v>
       </c>
       <c r="AF8" t="n">
         <v>3.69416732631543e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>45</v>
+        <v>44.33333333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>2609120.788265346</v>
+        <v>2886109.170075348</v>
       </c>
     </row>
     <row r="9">
@@ -33071,28 +33071,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2029.062627564791</v>
+        <v>2252.92985896531</v>
       </c>
       <c r="AB9" t="n">
-        <v>2776.253002959557</v>
+        <v>3082.558025287138</v>
       </c>
       <c r="AC9" t="n">
-        <v>2511.291312852659</v>
+        <v>2788.363013750978</v>
       </c>
       <c r="AD9" t="n">
-        <v>2029062.627564791</v>
+        <v>2252929.85896531</v>
       </c>
       <c r="AE9" t="n">
-        <v>2776253.002959557</v>
+        <v>3082558.025287138</v>
       </c>
       <c r="AF9" t="n">
         <v>3.747620540101886e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>44</v>
+        <v>43.7</v>
       </c>
       <c r="AH9" t="n">
-        <v>2511291.312852659</v>
+        <v>2788363.013750978</v>
       </c>
     </row>
     <row r="10">
@@ -33177,28 +33177,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1982.452866974112</v>
+        <v>2196.550615192748</v>
       </c>
       <c r="AB10" t="n">
-        <v>2712.479472241878</v>
+        <v>3005.417456680822</v>
       </c>
       <c r="AC10" t="n">
-        <v>2453.604238399963</v>
+        <v>2718.584632744984</v>
       </c>
       <c r="AD10" t="n">
-        <v>1982452.866974112</v>
+        <v>2196550.615192748</v>
       </c>
       <c r="AE10" t="n">
-        <v>2712479.472241879</v>
+        <v>3005417.456680822</v>
       </c>
       <c r="AF10" t="n">
         <v>3.777098415351769e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>44</v>
+        <v>43.35833333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>2453604.238399963</v>
+        <v>2718584.632744984</v>
       </c>
     </row>
     <row r="11">
@@ -33283,28 +33283,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1909.01326140253</v>
+        <v>2123.178329428867</v>
       </c>
       <c r="AB11" t="n">
-        <v>2611.996163972105</v>
+        <v>2905.026258341713</v>
       </c>
       <c r="AC11" t="n">
-        <v>2362.710916042247</v>
+        <v>2627.774629475541</v>
       </c>
       <c r="AD11" t="n">
-        <v>1909013.26140253</v>
+        <v>2123178.329428867</v>
       </c>
       <c r="AE11" t="n">
-        <v>2611996.163972104</v>
+        <v>2905026.258341713</v>
       </c>
       <c r="AF11" t="n">
         <v>3.817581364028277e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>43</v>
+        <v>42.89583333333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>2362710.916042247</v>
+        <v>2627774.62947554</v>
       </c>
     </row>
     <row r="12">
@@ -33389,28 +33389,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1877.126828655342</v>
+        <v>2091.291896681681</v>
       </c>
       <c r="AB12" t="n">
-        <v>2568.367739957272</v>
+        <v>2861.397834326881</v>
       </c>
       <c r="AC12" t="n">
-        <v>2323.246327582513</v>
+        <v>2588.310041015807</v>
       </c>
       <c r="AD12" t="n">
-        <v>1877126.828655343</v>
+        <v>2091291.89668168</v>
       </c>
       <c r="AE12" t="n">
-        <v>2568367.739957272</v>
+        <v>2861397.834326881</v>
       </c>
       <c r="AF12" t="n">
         <v>3.837626319198197e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>43</v>
+        <v>42.675</v>
       </c>
       <c r="AH12" t="n">
-        <v>2323246.327582513</v>
+        <v>2588310.041015807</v>
       </c>
     </row>
     <row r="13">
@@ -33495,28 +33495,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1878.959886358482</v>
+        <v>2093.124954384819</v>
       </c>
       <c r="AB13" t="n">
-        <v>2570.875810375506</v>
+        <v>2863.905904745114</v>
       </c>
       <c r="AC13" t="n">
-        <v>2325.515031280128</v>
+        <v>2590.578744713423</v>
       </c>
       <c r="AD13" t="n">
-        <v>1878959.886358482</v>
+        <v>2093124.954384819</v>
       </c>
       <c r="AE13" t="n">
-        <v>2570875.810375506</v>
+        <v>2863905.904745114</v>
       </c>
       <c r="AF13" t="n">
         <v>3.838805434208193e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>43</v>
+        <v>42.6625</v>
       </c>
       <c r="AH13" t="n">
-        <v>2325515.031280128</v>
+        <v>2590578.744713422</v>
       </c>
     </row>
     <row r="14">
@@ -33601,28 +33601,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1885.721618405159</v>
+        <v>2099.886686431497</v>
       </c>
       <c r="AB14" t="n">
-        <v>2580.127510468335</v>
+        <v>2873.157604837944</v>
       </c>
       <c r="AC14" t="n">
-        <v>2333.883762100941</v>
+        <v>2598.947475534235</v>
       </c>
       <c r="AD14" t="n">
-        <v>1885721.61840516</v>
+        <v>2099886.686431497</v>
       </c>
       <c r="AE14" t="n">
-        <v>2580127.510468334</v>
+        <v>2873157.604837944</v>
       </c>
       <c r="AF14" t="n">
         <v>3.838412395871527e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>43</v>
+        <v>42.6625</v>
       </c>
       <c r="AH14" t="n">
-        <v>2333883.762100941</v>
+        <v>2598947.475534235</v>
       </c>
     </row>
   </sheetData>
@@ -33898,28 +33898,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1280.741666065433</v>
+        <v>1524.475418916631</v>
       </c>
       <c r="AB2" t="n">
-        <v>1752.367249845297</v>
+        <v>2085.85452327059</v>
       </c>
       <c r="AC2" t="n">
-        <v>1585.123778982944</v>
+        <v>1886.783495084854</v>
       </c>
       <c r="AD2" t="n">
-        <v>1280741.666065433</v>
+        <v>1524475.418916631</v>
       </c>
       <c r="AE2" t="n">
-        <v>1752367.249845297</v>
+        <v>2085854.52327059</v>
       </c>
       <c r="AF2" t="n">
         <v>7.344281760550666e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>55</v>
+        <v>54.1</v>
       </c>
       <c r="AH2" t="n">
-        <v>1585123.778982944</v>
+        <v>1886783.495084854</v>
       </c>
     </row>
   </sheetData>
@@ -34195,28 +34195,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3136.046138486333</v>
+        <v>3457.009309487486</v>
       </c>
       <c r="AB2" t="n">
-        <v>4290.87667926844</v>
+        <v>4730.032649727991</v>
       </c>
       <c r="AC2" t="n">
-        <v>3881.361431282142</v>
+        <v>4278.604972280291</v>
       </c>
       <c r="AD2" t="n">
-        <v>3136046.138486333</v>
+        <v>3457009.309487485</v>
       </c>
       <c r="AE2" t="n">
-        <v>4290876.67926844</v>
+        <v>4730032.649727991</v>
       </c>
       <c r="AF2" t="n">
         <v>3.34874057373151e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>65</v>
+        <v>64.68333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>3881361.431282142</v>
+        <v>4278604.972280291</v>
       </c>
     </row>
     <row r="3">
@@ -34301,28 +34301,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1962.193160895326</v>
+        <v>2198.169372181707</v>
       </c>
       <c r="AB3" t="n">
-        <v>2684.759248589733</v>
+        <v>3007.632311407634</v>
       </c>
       <c r="AC3" t="n">
-        <v>2428.5295939876</v>
+        <v>2720.588104845237</v>
       </c>
       <c r="AD3" t="n">
-        <v>1962193.160895326</v>
+        <v>2198169.372181707</v>
       </c>
       <c r="AE3" t="n">
-        <v>2684759.248589733</v>
+        <v>3007632.311407634</v>
       </c>
       <c r="AF3" t="n">
         <v>4.401914805706058e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>50</v>
+        <v>49.20416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2428529.593987599</v>
+        <v>2720588.104845237</v>
       </c>
     </row>
     <row r="4">
@@ -34407,28 +34407,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1669.792523895724</v>
+        <v>1886.882519461073</v>
       </c>
       <c r="AB4" t="n">
-        <v>2284.683797241195</v>
+        <v>2581.715906508376</v>
       </c>
       <c r="AC4" t="n">
-        <v>2066.636782206344</v>
+        <v>2335.320563852248</v>
       </c>
       <c r="AD4" t="n">
-        <v>1669792.523895724</v>
+        <v>1886882.519461073</v>
       </c>
       <c r="AE4" t="n">
-        <v>2284683.797241196</v>
+        <v>2581715.906508376</v>
       </c>
       <c r="AF4" t="n">
         <v>4.771513462632961e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>46</v>
+        <v>45.39166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2066636.782206344</v>
+        <v>2335320.563852248</v>
       </c>
     </row>
     <row r="5">
@@ -34513,28 +34513,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1531.758773789363</v>
+        <v>1748.881923743635</v>
       </c>
       <c r="AB5" t="n">
-        <v>2095.8199307264</v>
+        <v>2392.897403291174</v>
       </c>
       <c r="AC5" t="n">
-        <v>1895.797818039619</v>
+        <v>2164.522633573662</v>
       </c>
       <c r="AD5" t="n">
-        <v>1531758.773789363</v>
+        <v>1748881.923743635</v>
       </c>
       <c r="AE5" t="n">
-        <v>2095819.9307264</v>
+        <v>2392897.403291174</v>
       </c>
       <c r="AF5" t="n">
         <v>4.931101068366518e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>44</v>
+        <v>43.92083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1895797.818039619</v>
+        <v>2164522.633573662</v>
       </c>
     </row>
     <row r="6">
@@ -34619,28 +34619,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1531.960622941731</v>
+        <v>1749.083772896004</v>
       </c>
       <c r="AB6" t="n">
-        <v>2096.096109641627</v>
+        <v>2393.173582206402</v>
       </c>
       <c r="AC6" t="n">
-        <v>1896.047638826797</v>
+        <v>2164.772454360841</v>
       </c>
       <c r="AD6" t="n">
-        <v>1531960.622941731</v>
+        <v>1749083.772896004</v>
       </c>
       <c r="AE6" t="n">
-        <v>2096096.109641627</v>
+        <v>2393173.582206402</v>
       </c>
       <c r="AF6" t="n">
         <v>4.938898508386072e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>44</v>
+        <v>43.85416666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1896047.638826797</v>
+        <v>2164772.45436084</v>
       </c>
     </row>
   </sheetData>
@@ -34916,28 +34916,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4442.6198405491</v>
+        <v>4815.160314308523</v>
       </c>
       <c r="AB2" t="n">
-        <v>6078.588460394388</v>
+        <v>6588.314771917817</v>
       </c>
       <c r="AC2" t="n">
-        <v>5498.456509086605</v>
+        <v>5959.535256843589</v>
       </c>
       <c r="AD2" t="n">
-        <v>4442619.8405491</v>
+        <v>4815160.314308523</v>
       </c>
       <c r="AE2" t="n">
-        <v>6078588.460394388</v>
+        <v>6588314.771917817</v>
       </c>
       <c r="AF2" t="n">
         <v>2.574515308507096e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>75</v>
+        <v>74.91249999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>5498456.509086605</v>
+        <v>5959535.256843589</v>
       </c>
     </row>
     <row r="3">
@@ -35022,28 +35022,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2440.979785442576</v>
+        <v>2698.82772942361</v>
       </c>
       <c r="AB3" t="n">
-        <v>3339.85623087059</v>
+        <v>3692.655163273909</v>
       </c>
       <c r="AC3" t="n">
-        <v>3021.105039713834</v>
+        <v>3340.23333716498</v>
       </c>
       <c r="AD3" t="n">
-        <v>2440979.785442576</v>
+        <v>2698827.72942361</v>
       </c>
       <c r="AE3" t="n">
-        <v>3339856.23087059</v>
+        <v>3692655.163273909</v>
       </c>
       <c r="AF3" t="n">
         <v>3.678937014026321e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>53</v>
+        <v>52.42083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>3021105.039713834</v>
+        <v>3340233.33716498</v>
       </c>
     </row>
     <row r="4">
@@ -35128,28 +35128,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2045.896046670651</v>
+        <v>2275.113312223101</v>
       </c>
       <c r="AB4" t="n">
-        <v>2799.285229618235</v>
+        <v>3112.910404699337</v>
       </c>
       <c r="AC4" t="n">
-        <v>2532.125376124965</v>
+        <v>2815.818604671907</v>
       </c>
       <c r="AD4" t="n">
-        <v>2045896.046670651</v>
+        <v>2275113.312223101</v>
       </c>
       <c r="AE4" t="n">
-        <v>2799285.229618235</v>
+        <v>3112910.404699337</v>
       </c>
       <c r="AF4" t="n">
         <v>4.065438323376092e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>48</v>
+        <v>47.4375</v>
       </c>
       <c r="AH4" t="n">
-        <v>2532125.376124965</v>
+        <v>2815818.604671908</v>
       </c>
     </row>
     <row r="5">
@@ -35234,28 +35234,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1857.084400350675</v>
+        <v>2076.746717953999</v>
       </c>
       <c r="AB5" t="n">
-        <v>2540.944805341293</v>
+        <v>2841.496479103671</v>
       </c>
       <c r="AC5" t="n">
-        <v>2298.440599357951</v>
+        <v>2570.308043203372</v>
       </c>
       <c r="AD5" t="n">
-        <v>1857084.400350675</v>
+        <v>2076746.717954</v>
       </c>
       <c r="AE5" t="n">
-        <v>2540944.805341293</v>
+        <v>2841496.479103671</v>
       </c>
       <c r="AF5" t="n">
         <v>4.26864080817196e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>46</v>
+        <v>45.17916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2298440.599357951</v>
+        <v>2570308.043203372</v>
       </c>
     </row>
     <row r="6">
@@ -35340,28 +35340,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1719.716775412112</v>
+        <v>1939.412247404361</v>
       </c>
       <c r="AB6" t="n">
-        <v>2352.99236066845</v>
+        <v>2653.589397728422</v>
       </c>
       <c r="AC6" t="n">
-        <v>2128.426072211772</v>
+        <v>2400.334549945331</v>
       </c>
       <c r="AD6" t="n">
-        <v>1719716.775412112</v>
+        <v>1939412.247404361</v>
       </c>
       <c r="AE6" t="n">
-        <v>2352992.36066845</v>
+        <v>2653589.397728422</v>
       </c>
       <c r="AF6" t="n">
         <v>4.395931658556615e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>44</v>
+        <v>43.875</v>
       </c>
       <c r="AH6" t="n">
-        <v>2128426.072211772</v>
+        <v>2400334.549945331</v>
       </c>
     </row>
     <row r="7">
@@ -35446,28 +35446,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1653.012630859207</v>
+        <v>1863.12000051341</v>
       </c>
       <c r="AB7" t="n">
-        <v>2261.724807311998</v>
+        <v>2549.202979755834</v>
       </c>
       <c r="AC7" t="n">
-        <v>2045.868966052844</v>
+        <v>2305.910625196791</v>
       </c>
       <c r="AD7" t="n">
-        <v>1653012.630859207</v>
+        <v>1863120.00051341</v>
       </c>
       <c r="AE7" t="n">
-        <v>2261724.807311998</v>
+        <v>2549202.979755834</v>
       </c>
       <c r="AF7" t="n">
         <v>4.458419894199991e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>44</v>
+        <v>43.25833333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>2045868.966052844</v>
+        <v>2305910.62519679</v>
       </c>
     </row>
     <row r="8">
@@ -35552,28 +35552,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1655.045914413793</v>
+        <v>1865.153284067996</v>
       </c>
       <c r="AB8" t="n">
-        <v>2264.506835573522</v>
+        <v>2551.985008017359</v>
       </c>
       <c r="AC8" t="n">
-        <v>2048.38548144169</v>
+        <v>2308.427140585636</v>
       </c>
       <c r="AD8" t="n">
-        <v>1655045.914413793</v>
+        <v>1865153.284067996</v>
       </c>
       <c r="AE8" t="n">
-        <v>2264506.835573522</v>
+        <v>2551985.008017359</v>
       </c>
       <c r="AF8" t="n">
         <v>4.461197149117474e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>44</v>
+        <v>43.22916666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>2048385.48144169</v>
+        <v>2308427.140585636</v>
       </c>
     </row>
   </sheetData>
